--- a/OV-Template.xlsx
+++ b/OV-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\Export-Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA1644-5260-4480-BE5A-C9F675C9EADB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F5315-665D-45C0-9B23-BAE34DD911DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" firstSheet="26" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="11" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="705">
   <si>
     <t>#Configure Logical InterConnect Group</t>
   </si>
@@ -2466,9 +2466,6 @@
     <t>keyManagerpassword</t>
   </si>
   <si>
-    <t>certifcateName</t>
-  </si>
-  <si>
     <t>connectionConsistencyChecking</t>
   </si>
   <si>
@@ -3497,11 +3494,6 @@
   </si>
   <si>
     <t>localStorageConsistencyChecking</t>
-  </si>
-  <si>
-    <t># Exact
-# None
-# Miimum</t>
   </si>
   <si>
     <t>logicalDrives</t>
@@ -3996,6 +3988,23 @@
 #
 # Use '|' as separator for each logicalDiskName
 </t>
+  </si>
+  <si>
+    <t>certificateName</t>
+  </si>
+  <si>
+    <t># Exact
+# None
+#Minimum</t>
+  </si>
+  <si>
+    <t>fabricModuleName</t>
+  </si>
+  <si>
+    <t># Virtual Connect SE 40Gb F8 Module for Synergy
+# irtual Connect SE 100Gb F32 Module for Synergy
+# Virtual Connect SE 16Gb FC Module for Synergy
+# Virtual Connect SE 32Gb FC Module for Synergy</t>
   </si>
 </sst>
 </file>
@@ -4323,7 +4332,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4726,6 +4735,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -5426,10 +5438,10 @@
         <v>65</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>397</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>398</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>281</v>
@@ -5442,12 +5454,12 @@
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5502,13 +5514,13 @@
     </row>
     <row r="9" spans="1:13" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>399</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>400</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="44"/>
@@ -5568,13 +5580,13 @@
         <v>196</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
@@ -5582,12 +5594,12 @@
     </row>
     <row r="2" spans="1:14" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5642,19 +5654,19 @@
     </row>
     <row r="9" spans="1:14" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>489</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>490</v>
-      </c>
       <c r="C9" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>495</v>
-      </c>
       <c r="E9" s="82" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="42"/>
@@ -5704,16 +5716,16 @@
         <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>262</v>
@@ -5730,7 +5742,7 @@
     </row>
     <row r="3" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B3" s="21"/>
       <c r="D3" s="34"/>
@@ -5739,7 +5751,7 @@
     </row>
     <row r="4" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -5773,22 +5785,22 @@
     </row>
     <row r="8" spans="1:12" s="43" customFormat="1" ht="228.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E8" s="48" t="s">
         <v>308</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G8" s="49" t="s">
         <v>309</v>
@@ -5838,15 +5850,15 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
     </row>
     <row r="15" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="95"/>
@@ -6364,10 +6376,10 @@
         <v>243</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>197</v>
@@ -6379,22 +6391,22 @@
         <v>169</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>477</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6408,7 +6420,7 @@
     </row>
     <row r="3" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -6418,7 +6430,7 @@
     </row>
     <row r="4" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -6442,40 +6454,40 @@
     </row>
     <row r="8" spans="1:12" s="43" customFormat="1" ht="228.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>460</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>463</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>464</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>461</v>
-      </c>
       <c r="F8" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K8" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="L8" s="42" t="s">
         <v>479</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6518,11 +6530,11 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
     </row>
     <row r="15" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7087,7 +7099,7 @@
         <v>173</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>111</v>
@@ -7183,7 +7195,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>24</v>
@@ -7263,7 +7275,7 @@
         <v>244</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="5"/>
@@ -7337,7 +7349,7 @@
         <v>245</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="54"/>
@@ -7399,10 +7411,10 @@
         <v>73</v>
       </c>
       <c r="E1" s="100" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="100" t="s">
         <v>406</v>
-      </c>
-      <c r="F1" s="100" t="s">
-        <v>407</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>67</v>
@@ -7494,7 +7506,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>12</v>
@@ -7503,10 +7515,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="F7" s="61" t="s">
         <v>404</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>405</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>284</v>
@@ -7890,7 +7902,7 @@
         <v>223</v>
       </c>
       <c r="D1" s="108" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>72</v>
@@ -8027,7 +8039,7 @@
         <v>285</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>222</v>
@@ -8100,7 +8112,7 @@
         <v>66</v>
       </c>
       <c r="D1" s="100" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>289</v>
@@ -8175,13 +8187,13 @@
         <v>285</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>287</v>
@@ -8329,12 +8341,12 @@
         <v>170</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="129"/>
@@ -8342,7 +8354,7 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B3" s="130"/>
       <c r="C3" s="130"/>
@@ -8386,12 +8398,12 @@
     </row>
     <row r="9" spans="1:5" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B9" s="136"/>
       <c r="C9" s="136"/>
       <c r="D9" s="135" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E9" s="42"/>
     </row>
@@ -8402,10 +8414,10 @@
     <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>170</v>
@@ -8422,9 +8434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA14" sqref="AA14"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8471,7 +8483,7 @@
         <v>92</v>
       </c>
       <c r="E1" s="106" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>94</v>
@@ -8483,10 +8495,10 @@
         <v>298</v>
       </c>
       <c r="I1" s="104" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J1" s="104" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>159</v>
@@ -8513,7 +8525,7 @@
         <v>160</v>
       </c>
       <c r="S1" s="108" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>87</v>
@@ -8543,7 +8555,7 @@
         <v>288</v>
       </c>
       <c r="AC1" s="104" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8627,7 +8639,7 @@
         <v>93</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>215</v>
@@ -8639,10 +8651,10 @@
         <v>95</v>
       </c>
       <c r="I7" s="117" t="s">
+        <v>413</v>
+      </c>
+      <c r="J7" s="117" t="s">
         <v>414</v>
-      </c>
-      <c r="J7" s="117" t="s">
-        <v>415</v>
       </c>
       <c r="K7" s="63" t="s">
         <v>75</v>
@@ -8669,7 +8681,7 @@
         <v>75</v>
       </c>
       <c r="S7" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T7" s="44" t="s">
         <v>89</v>
@@ -8699,7 +8711,7 @@
         <v>232</v>
       </c>
       <c r="AC7" s="117" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8994,11 +9006,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:U135"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9009,15 +9021,16 @@
     <col min="4" max="4" width="58.140625" style="7" customWidth="1"/>
     <col min="5" max="6" width="27.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="29.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="36.140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" customWidth="1"/>
-    <col min="13" max="14" width="24" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" style="151" customWidth="1"/>
+    <col min="9" max="9" width="33.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="36.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" customWidth="1"/>
+    <col min="14" max="15" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>96</v>
       </c>
@@ -9039,100 +9052,104 @@
       <c r="G1" s="104" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="102" t="s">
+        <v>703</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="104" t="s">
-        <v>420</v>
-      </c>
       <c r="J1" s="104" t="s">
+        <v>419</v>
+      </c>
+      <c r="K1" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="N1" s="104" t="s">
         <v>299</v>
       </c>
-      <c r="N1" s="104" t="s">
+      <c r="O1" s="104" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
-      <c r="O2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="P2" s="19"/>
-    </row>
-    <row r="3" spans="1:21" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:22" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:21" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="1:22" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
-    </row>
-    <row r="5" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="M6" s="23"/>
       <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="M7" s="19"/>
       <c r="P7" s="19"/>
-    </row>
-    <row r="8" spans="1:21" s="43" customFormat="1" ht="228.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:22" s="43" customFormat="1" ht="228.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>15</v>
       </c>
@@ -9154,28 +9171,31 @@
       <c r="G8" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="42" t="s">
+        <v>704</v>
+      </c>
+      <c r="I8" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="44" t="s">
-        <v>682</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>421</v>
-      </c>
-      <c r="K8" s="44" t="s">
+      <c r="J8" s="44" t="s">
+        <v>680</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="L8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="M8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="44"/>
+      <c r="O8" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="P8" s="46"/>
-    </row>
-    <row r="9" spans="1:21" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="46"/>
+    </row>
+    <row r="9" spans="1:22" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -9186,8 +9206,9 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -9198,8 +9219,9 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -9210,8 +9232,9 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -9222,8 +9245,9 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -9233,180 +9257,202 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-    </row>
-    <row r="15" spans="1:21" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+    </row>
+    <row r="15" spans="1:22" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G15" s="105"/>
-      <c r="H15" s="107"/>
+      <c r="H15"/>
       <c r="I15" s="107"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="84"/>
-    </row>
-    <row r="16" spans="1:21" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="107"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="84"/>
+    </row>
+    <row r="16" spans="1:22" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="105"/>
-      <c r="H16" s="107"/>
+      <c r="H16"/>
       <c r="I16" s="107"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="84"/>
-    </row>
-    <row r="17" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="107"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="84"/>
+    </row>
+    <row r="17" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G17" s="105"/>
-      <c r="H17" s="107"/>
+      <c r="H17"/>
       <c r="I17" s="107"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="84"/>
-    </row>
-    <row r="18" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="107"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="84"/>
+    </row>
+    <row r="18" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G18" s="105"/>
-      <c r="H18" s="107"/>
+      <c r="H18"/>
       <c r="I18" s="107"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="84"/>
-    </row>
-    <row r="19" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="107"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="84"/>
+    </row>
+    <row r="19" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G19" s="105"/>
-      <c r="H19" s="107"/>
+      <c r="H19"/>
       <c r="I19" s="107"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="84"/>
-    </row>
-    <row r="20" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="107"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="84"/>
+    </row>
+    <row r="20" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G20" s="105"/>
-      <c r="H20" s="107"/>
+      <c r="H20"/>
       <c r="I20" s="107"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="84"/>
-    </row>
-    <row r="21" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="107"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="84"/>
+    </row>
+    <row r="21" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G21" s="105"/>
-      <c r="H21" s="107"/>
+      <c r="H21"/>
       <c r="I21" s="107"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="84"/>
-    </row>
-    <row r="22" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="107"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="84"/>
+    </row>
+    <row r="22" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G22" s="105"/>
-      <c r="H22" s="107"/>
+      <c r="H22"/>
       <c r="I22" s="107"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="84"/>
-    </row>
-    <row r="23" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="107"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="84"/>
+    </row>
+    <row r="23" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G23" s="105"/>
-      <c r="H23" s="107"/>
+      <c r="H23"/>
       <c r="I23" s="107"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="84"/>
-    </row>
-    <row r="24" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="107"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="84"/>
+    </row>
+    <row r="24" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G24" s="105"/>
-      <c r="H24" s="107"/>
+      <c r="H24"/>
       <c r="I24" s="107"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="84"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="107"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="84"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -9414,124 +9460,124 @@
       <c r="E35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="D40" s="4"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="9"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="D42" s="4"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="9"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="D44" s="4"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="9"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="D46" s="4"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="D47" s="4"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="D48" s="4"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="D49" s="4"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="D50" s="4"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="D51" s="4"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="D52" s="4"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="D53" s="4"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="D54" s="4"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
-    </row>
-    <row r="56" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="9"/>
+    </row>
+    <row r="56" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
@@ -9539,14 +9585,15 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="H56" s="151"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
-      <c r="M56" s="11"/>
+      <c r="L56" s="11"/>
       <c r="N56" s="11"/>
-    </row>
-    <row r="57" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="11"/>
+    </row>
+    <row r="57" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
@@ -9554,14 +9601,15 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+      <c r="H57" s="151"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-      <c r="M57" s="11"/>
+      <c r="L57" s="11"/>
       <c r="N57" s="11"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="11"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -9569,7 +9617,7 @@
       <c r="E58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="1:14" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -9577,12 +9625,13 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="151"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
-    </row>
-    <row r="61" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L59" s="9"/>
+    </row>
+    <row r="61" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -9590,27 +9639,27 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K61" s="9"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="D63" s="4"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K63" s="9"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="D65" s="4"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-    </row>
-    <row r="67" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="9"/>
+    </row>
+    <row r="67" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
@@ -9618,14 +9667,15 @@
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+      <c r="H67" s="151"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="M67" s="11"/>
+      <c r="L67" s="11"/>
       <c r="N67" s="11"/>
-    </row>
-    <row r="68" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="11"/>
+    </row>
+    <row r="68" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
@@ -9633,14 +9683,15 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
+      <c r="H68" s="151"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="M68" s="11"/>
+      <c r="L68" s="11"/>
       <c r="N68" s="11"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="11"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -9648,7 +9699,7 @@
       <c r="E69"/>
       <c r="F69"/>
     </row>
-    <row r="70" spans="1:14" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -9656,12 +9707,13 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
+      <c r="H70" s="151"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
-    </row>
-    <row r="72" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="72" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -9669,27 +9721,27 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K72" s="9"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="D74" s="4"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K74" s="9"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="D76" s="4"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K76" s="9"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -9697,7 +9749,7 @@
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
@@ -9705,14 +9757,15 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
+      <c r="H78" s="151"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
-      <c r="M78" s="11"/>
+      <c r="L78" s="11"/>
       <c r="N78" s="11"/>
-    </row>
-    <row r="79" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="11"/>
+    </row>
+    <row r="79" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
@@ -9720,14 +9773,15 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
+      <c r="H79" s="151"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
-      <c r="M79" s="11"/>
+      <c r="L79" s="11"/>
       <c r="N79" s="11"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="11"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -9735,7 +9789,7 @@
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -9743,12 +9797,13 @@
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
+      <c r="H81" s="151"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
-    </row>
-    <row r="83" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="83" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -9756,27 +9811,27 @@
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K83" s="9"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="D85" s="4"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K85" s="9"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="D87" s="4"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
-    </row>
-    <row r="89" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K87" s="9"/>
+    </row>
+    <row r="89" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
@@ -9784,14 +9839,15 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
+      <c r="H89" s="151"/>
       <c r="I89" s="11"/>
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
-      <c r="M89" s="11"/>
+      <c r="L89" s="11"/>
       <c r="N89" s="11"/>
-    </row>
-    <row r="90" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="11"/>
+    </row>
+    <row r="90" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
@@ -9799,14 +9855,15 @@
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
+      <c r="H90" s="151"/>
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
-      <c r="M90" s="11"/>
+      <c r="L90" s="11"/>
       <c r="N90" s="11"/>
-    </row>
-    <row r="92" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="11"/>
+    </row>
+    <row r="92" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -9814,12 +9871,13 @@
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
+      <c r="H92" s="151"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
-    </row>
-    <row r="94" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L92" s="9"/>
+    </row>
+    <row r="94" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -9827,27 +9885,27 @@
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K94" s="9"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="D96" s="4"/>
       <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K96" s="9"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="D98" s="4"/>
       <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
-    </row>
-    <row r="100" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K98" s="9"/>
+    </row>
+    <row r="100" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="12"/>
@@ -9855,14 +9913,15 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
+      <c r="H100" s="151"/>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
-      <c r="M100" s="11"/>
+      <c r="L100" s="11"/>
       <c r="N100" s="11"/>
-    </row>
-    <row r="101" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="11"/>
+    </row>
+    <row r="101" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="12"/>
@@ -9870,14 +9929,15 @@
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
+      <c r="H101" s="151"/>
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
       <c r="K101" s="11"/>
-      <c r="M101" s="11"/>
+      <c r="L101" s="11"/>
       <c r="N101" s="11"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="11"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -9885,7 +9945,7 @@
       <c r="E102"/>
       <c r="F102"/>
     </row>
-    <row r="103" spans="1:14" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -9893,12 +9953,13 @@
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
+      <c r="H103" s="151"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
-    </row>
-    <row r="105" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L103" s="9"/>
+    </row>
+    <row r="105" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -9906,27 +9967,27 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K105" s="9"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="D107" s="4"/>
       <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K107" s="9"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="D109" s="4"/>
       <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
-    </row>
-    <row r="111" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K109" s="9"/>
+    </row>
+    <row r="111" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="12"/>
@@ -9934,14 +9995,15 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
+      <c r="H111" s="151"/>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
-      <c r="M111" s="11"/>
+      <c r="L111" s="11"/>
       <c r="N111" s="11"/>
-    </row>
-    <row r="112" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O111" s="11"/>
+    </row>
+    <row r="112" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="12"/>
@@ -9949,14 +10011,15 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
+      <c r="H112" s="151"/>
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
       <c r="K112" s="11"/>
-      <c r="M112" s="11"/>
+      <c r="L112" s="11"/>
       <c r="N112" s="11"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="11"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -9964,7 +10027,7 @@
       <c r="E113"/>
       <c r="F113"/>
     </row>
-    <row r="122" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
@@ -9972,14 +10035,15 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
+      <c r="H122" s="151"/>
       <c r="I122" s="11"/>
       <c r="J122" s="11"/>
       <c r="K122" s="11"/>
-      <c r="M122" s="11"/>
+      <c r="L122" s="11"/>
       <c r="N122" s="11"/>
-    </row>
-    <row r="123" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O122" s="11"/>
+    </row>
+    <row r="123" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="12"/>
@@ -9987,14 +10051,15 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
+      <c r="H123" s="151"/>
       <c r="I123" s="11"/>
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
-      <c r="M123" s="11"/>
+      <c r="L123" s="11"/>
       <c r="N123" s="11"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="11"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -10012,7 +10077,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D14:U14"/>
+    <mergeCell ref="D14:V14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10047,7 +10112,7 @@
         <v>374</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>169</v>
@@ -10056,16 +10121,16 @@
         <v>170</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>327</v>
@@ -10074,7 +10139,7 @@
         <v>208</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -10092,7 +10157,7 @@
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C3" s="21"/>
       <c r="H3" s="34"/>
@@ -10103,7 +10168,7 @@
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
@@ -10166,36 +10231,36 @@
     </row>
     <row r="9" spans="1:14" s="45" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="42"/>
       <c r="F9" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="G9" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>504</v>
-      </c>
       <c r="H9" s="44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="42"/>
@@ -10234,31 +10299,31 @@
         <v>68</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>515</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>517</v>
-      </c>
       <c r="F1" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="H1" s="38" t="s">
-        <v>522</v>
-      </c>
       <c r="I1" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>525</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L1" s="5"/>
     </row>
@@ -10277,7 +10342,7 @@
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B3" s="142"/>
       <c r="D3" s="21"/>
@@ -10288,7 +10353,7 @@
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B4" s="143"/>
       <c r="I4" s="23"/>
@@ -10351,32 +10416,32 @@
     </row>
     <row r="9" spans="1:14" s="45" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C9" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>518</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>519</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="44" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L9" s="44"/>
       <c r="M9" s="41"/>
@@ -10442,106 +10507,106 @@
         <v>68</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G1" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="I1" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="J1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="U1" s="38" t="s">
         <v>536</v>
       </c>
-      <c r="M1" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>544</v>
-      </c>
-      <c r="R1" s="38" t="s">
+      <c r="V1" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="W1" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="S1" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="T1" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="U1" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="V1" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="W1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="Y1" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Z1" s="38" t="s">
         <v>548</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="AA1" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>550</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG1" s="38" t="s">
         <v>554</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="AG1" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="AH1" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>559</v>
-      </c>
       <c r="AJ1" s="38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>288</v>
@@ -10570,7 +10635,7 @@
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="21"/>
@@ -10579,7 +10644,7 @@
     </row>
     <row r="4" spans="1:37" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B4" s="143"/>
     </row>
@@ -10682,105 +10747,105 @@
     </row>
     <row r="9" spans="1:37" s="45" customFormat="1" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G9" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="K9" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="H9" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="K9" s="44" t="s">
+      <c r="L9" s="44" t="s">
         <v>569</v>
       </c>
-      <c r="L9" s="44" t="s">
-        <v>570</v>
-      </c>
       <c r="M9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="R9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="S9" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="T9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="U9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="W9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="X9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Y9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AB9" s="44"/>
       <c r="AC9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AD9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AF9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG9" s="44" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AH9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AI9" s="45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AJ9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -10820,64 +10885,64 @@
         <v>68</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K1" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="M1" s="38" t="s">
         <v>541</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>544</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>542</v>
-      </c>
       <c r="N1" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q1" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R1" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="S1" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="T1" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="U1" s="38" t="s">
         <v>554</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="V1" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="U1" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>288</v>
@@ -10907,7 +10972,7 @@
     </row>
     <row r="3" spans="1:23" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="21"/>
@@ -10916,7 +10981,7 @@
     </row>
     <row r="4" spans="1:23" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B4" s="143"/>
     </row>
@@ -10992,63 +11057,63 @@
     </row>
     <row r="9" spans="1:23" s="45" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H9" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>627</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>573</v>
+      </c>
+      <c r="M9" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="I9" s="44" t="s">
-        <v>628</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>574</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>572</v>
-      </c>
       <c r="N9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="S9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T9" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="U9" s="44" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V9" s="45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -11085,7 +11150,7 @@
         <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>288</v>
@@ -11135,7 +11200,7 @@
     </row>
     <row r="3" spans="1:23" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="21"/>
@@ -11145,13 +11210,13 @@
     </row>
     <row r="4" spans="1:23" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B4" s="143"/>
     </row>
     <row r="5" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B5" s="143"/>
     </row>
@@ -11222,10 +11287,10 @@
     </row>
     <row r="10" spans="1:23" s="45" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -11276,22 +11341,22 @@
         <v>68</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D1" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>588</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>589</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>590</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>288</v>
@@ -11309,7 +11374,7 @@
     </row>
     <row r="3" spans="1:9" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B3" s="142"/>
       <c r="D3" s="21"/>
@@ -11317,13 +11382,13 @@
     </row>
     <row r="4" spans="1:9" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B4" s="143"/>
     </row>
     <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B5" s="143"/>
     </row>
@@ -11353,19 +11418,19 @@
     </row>
     <row r="9" spans="1:9" s="45" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>138</v>
@@ -11413,16 +11478,16 @@
         <v>103</v>
       </c>
       <c r="D1" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" s="106" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="F1" s="38" t="s">
         <v>423</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="106" t="s">
         <v>424</v>
-      </c>
-      <c r="G1" s="106" t="s">
-        <v>425</v>
       </c>
       <c r="H1" s="108" t="s">
         <v>310</v>
@@ -11485,22 +11550,22 @@
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="41" t="s">
+        <v>681</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="F7" s="41" t="s">
         <v>683</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="G7" s="41" t="s">
         <v>684</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>685</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>686</v>
       </c>
       <c r="H7" s="50" t="s">
         <v>123</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J7" s="41" t="s">
         <v>312</v>
@@ -11649,7 +11714,7 @@
         <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>127</v>
@@ -11714,19 +11779,19 @@
     </row>
     <row r="7" spans="1:16" s="43" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>393</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>394</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F7" s="49" t="s">
         <v>105</v>
@@ -11865,54 +11930,54 @@
         <v>374</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>599</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>606</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="K1" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>604</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>602</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -11984,7 +12049,7 @@
     </row>
     <row r="9" spans="1:15" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -11993,7 +12058,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="41"/>
@@ -12001,7 +12066,7 @@
       <c r="L9" s="44"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O9" s="42"/>
     </row>
@@ -12101,34 +12166,34 @@
         <v>65</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D1" s="124" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="125" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="H1" s="125" t="s">
         <v>439</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="I1" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="J1" s="125" t="s">
         <v>327</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>146</v>
@@ -12160,7 +12225,7 @@
     </row>
     <row r="2" spans="1:34" s="129" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="127"/>
@@ -12169,7 +12234,7 @@
     </row>
     <row r="3" spans="1:34" s="130" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D3" s="131"/>
       <c r="AH3" s="131"/>
@@ -12232,37 +12297,37 @@
     </row>
     <row r="7" spans="1:34" s="139" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="135" t="s">
         <v>445</v>
-      </c>
-      <c r="B7" s="135" t="s">
-        <v>446</v>
       </c>
       <c r="C7" s="135"/>
       <c r="D7" s="135" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" s="136" t="s">
         <v>447</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="F7" s="136" t="s">
         <v>448</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="G7" s="136" t="s">
         <v>449</v>
-      </c>
-      <c r="G7" s="136" t="s">
-        <v>450</v>
       </c>
       <c r="H7" s="137"/>
       <c r="I7" s="136" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J7" s="138"/>
       <c r="K7" s="136" t="s">
+        <v>451</v>
+      </c>
+      <c r="L7" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="L7" s="136" t="s">
+      <c r="M7" s="136" t="s">
         <v>453</v>
-      </c>
-      <c r="M7" s="136" t="s">
-        <v>454</v>
       </c>
       <c r="N7" s="138"/>
       <c r="O7" s="138"/>
@@ -13053,9 +13118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF7" sqref="AF7"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13131,19 +13196,19 @@
         <v>332</v>
       </c>
       <c r="O1" s="108" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P1" s="108" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q1" s="108" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="R1" s="108" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="S1" s="108" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="T1" s="108" t="s">
         <v>319</v>
@@ -13179,10 +13244,10 @@
         <v>139</v>
       </c>
       <c r="AE1" s="108" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AF1" s="108" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>130</v>
@@ -13295,7 +13360,9 @@
       <c r="G7" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="51"/>
+      <c r="H7" s="137" t="s">
+        <v>702</v>
+      </c>
       <c r="I7" s="49" t="s">
         <v>51</v>
       </c>
@@ -13306,33 +13373,35 @@
         <v>199</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N7" s="50" t="s">
         <v>333</v>
       </c>
       <c r="O7" s="50" t="s">
-        <v>640</v>
+        <v>702</v>
       </c>
       <c r="P7" s="50" t="s">
-        <v>640</v>
+        <v>702</v>
       </c>
       <c r="Q7" s="50" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="R7" s="50" t="s">
-        <v>640</v>
+        <v>702</v>
       </c>
       <c r="S7" s="50" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="T7" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="U7" s="50"/>
+      <c r="U7" s="137" t="s">
+        <v>702</v>
+      </c>
       <c r="V7" s="50" t="s">
         <v>246</v>
       </c>
@@ -13340,26 +13409,32 @@
         <v>247</v>
       </c>
       <c r="X7" s="50" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y7" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="Z7" s="50"/>
+      <c r="Z7" s="137" t="s">
+        <v>702</v>
+      </c>
       <c r="AA7" s="50" t="s">
         <v>248</v>
       </c>
       <c r="AB7" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AC7" s="50"/>
+      <c r="AC7" s="137" t="s">
+        <v>702</v>
+      </c>
       <c r="AD7" s="49" t="s">
         <v>52</v>
       </c>
       <c r="AE7" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="AF7" s="50"/>
+        <v>387</v>
+      </c>
+      <c r="AF7" s="137" t="s">
+        <v>702</v>
+      </c>
       <c r="AG7" s="41" t="s">
         <v>53</v>
       </c>
@@ -14290,7 +14365,7 @@
         <v>205</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>206</v>
@@ -14317,10 +14392,10 @@
         <v>234</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -14422,13 +14497,13 @@
         <v>326</v>
       </c>
       <c r="I8" s="50" t="s">
+        <v>691</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>690</v>
+      </c>
+      <c r="K8" s="50" t="s">
         <v>693</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>692</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>695</v>
       </c>
       <c r="L8" s="50" t="s">
         <v>213</v>
@@ -15081,7 +15156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
@@ -15117,7 +15192,7 @@
         <v>155</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>200</v>
@@ -15138,19 +15213,19 @@
         <v>156</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>154</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -15213,49 +15288,49 @@
         <v>214</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F7" s="50" t="s">
         <v>152</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H7" s="149" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L7" s="50" t="s">
         <v>153</v>
       </c>
       <c r="M7" s="41" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N7" s="41" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="P7" s="41" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -15446,25 +15521,25 @@
         <v>146</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>675</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>661</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>663</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -15507,25 +15582,25 @@
         <v>62</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>674</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>675</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>676</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>677</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>678</v>
-      </c>
       <c r="F8" s="42" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -15591,9 +15666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FD9465-A2A8-41F9-94B0-C974B62D5D44}">
   <dimension ref="A1:AH132"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="Z1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15618,7 +15693,7 @@
         <v>146</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>334</v>
@@ -15708,7 +15783,7 @@
         <v>382</v>
       </c>
       <c r="AF1" s="38" t="s">
-        <v>385</v>
+        <v>701</v>
       </c>
       <c r="AG1" s="38" t="s">
         <v>383</v>
@@ -15719,13 +15794,13 @@
     </row>
     <row r="2" spans="1:34" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:34" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -15758,7 +15833,7 @@
         <v>62</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>340</v>
@@ -16041,13 +16116,13 @@
         <v>316</v>
       </c>
       <c r="O1" s="108" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="P1" s="108" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q1" s="108" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="R1" s="108" t="s">
         <v>319</v>
@@ -16074,7 +16149,7 @@
         <v>139</v>
       </c>
       <c r="Z1" s="108" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>130</v>
@@ -16213,13 +16288,13 @@
         <v>317</v>
       </c>
       <c r="O7" s="49" t="s">
+        <v>670</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q7" s="50" t="s">
         <v>672</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q7" s="50" t="s">
-        <v>674</v>
       </c>
       <c r="R7" s="49" t="s">
         <v>144</v>
@@ -16231,7 +16306,7 @@
         <v>247</v>
       </c>
       <c r="U7" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="V7" s="42" t="s">
         <v>242</v>
@@ -16246,7 +16321,7 @@
         <v>52</v>
       </c>
       <c r="Z7" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA7" s="93" t="s">
         <v>53</v>
@@ -16777,7 +16852,7 @@
         <v>205</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>206</v>
@@ -16804,10 +16879,10 @@
         <v>234</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -16909,13 +16984,13 @@
         <v>326</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L8" s="50" t="s">
         <v>213</v>
@@ -17606,7 +17681,7 @@
         <v>155</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>200</v>
@@ -17627,24 +17702,24 @@
         <v>156</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>154</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -17702,28 +17777,28 @@
         <v>214</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F7" s="50" t="s">
         <v>152</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H7" s="149" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>157</v>
@@ -17732,19 +17807,19 @@
         <v>153</v>
       </c>
       <c r="M7" s="41" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N7" s="41" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="P7" s="41" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -17935,25 +18010,25 @@
         <v>146</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>675</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>661</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>663</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -17996,25 +18071,25 @@
         <v>62</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>674</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>675</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>676</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>677</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>678</v>
-      </c>
       <c r="F8" s="42" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -18103,19 +18178,19 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>124</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>173</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
@@ -18129,13 +18204,13 @@
     </row>
     <row r="2" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -18207,19 +18282,19 @@
     </row>
     <row r="9" spans="1:15" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="42"/>
@@ -18290,9 +18365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F037BE-F09F-442A-B7A2-BD33E0B0B4D3}">
   <dimension ref="A1:AH132"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="AA1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
+      <selection pane="bottomLeft" activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18317,7 +18392,7 @@
         <v>146</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>334</v>
@@ -18407,7 +18482,7 @@
         <v>382</v>
       </c>
       <c r="AF1" s="38" t="s">
-        <v>385</v>
+        <v>701</v>
       </c>
       <c r="AG1" s="38" t="s">
         <v>383</v>
@@ -18418,13 +18493,13 @@
     </row>
     <row r="2" spans="1:34" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:34" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -18457,7 +18532,7 @@
         <v>62</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>340</v>
@@ -18686,29 +18761,29 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>620</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>621</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>622</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="I1" s="38" t="s">
         <v>625</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>626</v>
       </c>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
@@ -18719,13 +18794,13 @@
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:16" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -18801,31 +18876,31 @@
     </row>
     <row r="9" spans="1:16" s="45" customFormat="1" ht="208.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H9" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>633</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>634</v>
       </c>
       <c r="J9" s="42"/>
       <c r="K9" s="41"/>
@@ -18885,7 +18960,7 @@
     <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -19763,7 +19838,7 @@
         <v>185</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>186</v>

--- a/OV-Template.xlsx
+++ b/OV-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\Export-Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Temp\Import-Export-OneView-Resources-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F5315-665D-45C0-9B23-BAE34DD911DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1E9F1-D82A-49CC-96B5-D24B67AEA49E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" firstSheet="28" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="11" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="706">
   <si>
     <t>#Configure Logical InterConnect Group</t>
   </si>
@@ -362,9 +362,6 @@
   </si>
   <si>
     <t># Profile name</t>
-  </si>
-  <si>
-    <t># Name of server Hardware Type</t>
   </si>
   <si>
     <t># Firmware baseline to assign</t>
@@ -4005,6 +4002,50 @@
 # irtual Connect SE 100Gb F32 Module for Synergy
 # Virtual Connect SE 16Gb FC Module for Synergy
 # Virtual Connect SE 32Gb FC Module for Synergy</t>
+  </si>
+  <si>
+    <r>
+      <t># Name of server Hardware Type
+#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: Before running Import script against this sheet, ensure that the Server Hrdaware Type exists @ detination</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t># Name of server Hardware Type
+#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Before running Import script against this sheet, ensure that the Server Hrdaware Type exists @ detination</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5050,10 +5091,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="65"/>
@@ -5181,28 +5222,28 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I12" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H13" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="72" t="s">
         <v>107</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>108</v>
       </c>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" s="73">
         <v>43668</v>
@@ -5243,33 +5284,33 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" s="103">
         <v>43800</v>
       </c>
       <c r="H20" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H21" s="66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H22" s="66" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H23" s="66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H24" s="66" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5305,10 +5346,10 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -5318,12 +5359,12 @@
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5378,10 +5419,10 @@
     </row>
     <row r="9" spans="1:13" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>194</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>195</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="43"/>
@@ -5435,31 +5476,31 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>397</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5514,13 +5555,13 @@
     </row>
     <row r="9" spans="1:13" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>398</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>399</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="44"/>
@@ -5574,19 +5615,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
@@ -5594,12 +5635,12 @@
     </row>
     <row r="2" spans="1:14" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5654,19 +5695,19 @@
     </row>
     <row r="9" spans="1:14" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>489</v>
-      </c>
       <c r="C9" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>494</v>
-      </c>
       <c r="E9" s="82" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="42"/>
@@ -5710,25 +5751,25 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5742,7 +5783,7 @@
     </row>
     <row r="3" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B3" s="21"/>
       <c r="D3" s="34"/>
@@ -5751,7 +5792,7 @@
     </row>
     <row r="4" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -5785,25 +5826,25 @@
     </row>
     <row r="8" spans="1:12" s="43" customFormat="1" ht="228.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D8" s="42" t="s">
+        <v>677</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="49" t="s">
         <v>678</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="G8" s="49" t="s">
         <v>308</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>679</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6373,40 +6414,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E1" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6420,7 +6461,7 @@
     </row>
     <row r="3" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -6430,7 +6471,7 @@
     </row>
     <row r="4" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -6454,40 +6495,40 @@
     </row>
     <row r="8" spans="1:12" s="43" customFormat="1" ht="228.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>462</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>463</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>460</v>
-      </c>
       <c r="F8" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K8" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="L8" s="42" t="s">
         <v>478</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -7090,37 +7131,37 @@
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7195,7 +7236,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>24</v>
@@ -7266,28 +7307,28 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -7340,16 +7381,16 @@
     </row>
     <row r="9" spans="1:12" s="45" customFormat="1" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="54"/>
@@ -7399,40 +7440,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="100" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="100" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="100" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1" s="100" t="s">
-        <v>406</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7506,7 +7547,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>12</v>
@@ -7515,28 +7556,28 @@
         <v>13</v>
       </c>
       <c r="E7" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="F7" s="61" t="s">
-        <v>404</v>
-      </c>
       <c r="G7" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="H7" s="52" t="s">
-        <v>285</v>
-      </c>
       <c r="I7" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L7" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -7893,39 +7934,39 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="108" t="s">
-        <v>407</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
@@ -7935,7 +7976,7 @@
     </row>
     <row r="3" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -7967,7 +8008,7 @@
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="19"/>
       <c r="E6" s="19"/>
@@ -8018,34 +8059,34 @@
     </row>
     <row r="10" spans="1:12" s="45" customFormat="1" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="C10" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="44" t="s">
+      <c r="F10" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="I10" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="F10" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>222</v>
-      </c>
       <c r="J10" s="85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="42"/>
@@ -8103,30 +8144,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D1" s="100" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E1" s="100" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="100" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="100" t="s">
-        <v>290</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -8137,7 +8178,7 @@
     </row>
     <row r="3" spans="1:7" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -8178,25 +8219,25 @@
     </row>
     <row r="7" spans="1:7" s="53" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>286</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>389</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>408</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8332,21 +8373,21 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="129"/>
@@ -8354,7 +8395,7 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B3" s="130"/>
       <c r="C3" s="130"/>
@@ -8398,12 +8439,12 @@
     </row>
     <row r="9" spans="1:5" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B9" s="136"/>
       <c r="C9" s="136"/>
       <c r="D9" s="135" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E9" s="42"/>
     </row>
@@ -8414,13 +8455,13 @@
     <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -8471,91 +8512,91 @@
   <sheetData>
     <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="104" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" s="104" t="s">
+        <v>409</v>
+      </c>
+      <c r="J1" s="104" t="s">
+        <v>414</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="106" t="s">
-        <v>416</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="104" t="s">
-        <v>298</v>
-      </c>
-      <c r="I1" s="104" t="s">
+      <c r="L1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" s="108" t="s">
         <v>410</v>
       </c>
-      <c r="J1" s="104" t="s">
-        <v>415</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="S1" s="108" t="s">
-        <v>411</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="V1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="AB1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AC1" s="104" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8633,85 +8674,85 @@
         <v>33</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G7" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="117" t="s">
+        <v>412</v>
+      </c>
+      <c r="J7" s="117" t="s">
+        <v>413</v>
+      </c>
+      <c r="K7" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="H7" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="117" t="s">
-        <v>413</v>
-      </c>
-      <c r="J7" s="117" t="s">
-        <v>414</v>
-      </c>
-      <c r="K7" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>261</v>
-      </c>
       <c r="M7" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7" s="44" t="s">
         <v>17</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S7" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T7" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U7" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V7" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W7" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="X7" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="X7" s="43" t="s">
+      <c r="Y7" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="Y7" s="42" t="s">
+      <c r="Z7" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="Z7" s="42" t="s">
+      <c r="AA7" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="AA7" s="42" t="s">
-        <v>259</v>
-      </c>
       <c r="AB7" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AC7" s="117" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9008,7 +9049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
@@ -9032,49 +9073,49 @@
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="104" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="102" t="s">
+        <v>702</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="101" t="s">
+      <c r="J1" s="104" t="s">
+        <v>418</v>
+      </c>
+      <c r="K1" s="104" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="104" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" s="104" t="s">
         <v>300</v>
-      </c>
-      <c r="D1" s="102" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="104" t="s">
-        <v>302</v>
-      </c>
-      <c r="F1" s="104" t="s">
-        <v>290</v>
-      </c>
-      <c r="G1" s="104" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="102" t="s">
-        <v>703</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="104" t="s">
-        <v>419</v>
-      </c>
-      <c r="K1" s="104" t="s">
-        <v>296</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="104" t="s">
-        <v>299</v>
-      </c>
-      <c r="O1" s="104" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9157,31 +9198,31 @@
         <v>18</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I8" s="49" t="s">
         <v>32</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K8" s="49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L8" s="44" t="s">
         <v>19</v>
@@ -9191,7 +9232,7 @@
       </c>
       <c r="N8" s="44"/>
       <c r="O8" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="46"/>
     </row>
@@ -10106,40 +10147,40 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>507</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>501</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -10157,7 +10198,7 @@
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C3" s="21"/>
       <c r="H3" s="34"/>
@@ -10168,7 +10209,7 @@
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
@@ -10231,36 +10272,36 @@
     </row>
     <row r="9" spans="1:14" s="45" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="42"/>
       <c r="F9" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="G9" s="44" t="s">
         <v>502</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>503</v>
-      </c>
       <c r="H9" s="44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="42"/>
@@ -10293,37 +10334,37 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>515</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>516</v>
-      </c>
       <c r="F1" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="H1" s="38" t="s">
-        <v>521</v>
-      </c>
       <c r="I1" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>524</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L1" s="5"/>
     </row>
@@ -10342,7 +10383,7 @@
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B3" s="142"/>
       <c r="D3" s="21"/>
@@ -10353,7 +10394,7 @@
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B4" s="143"/>
       <c r="I4" s="23"/>
@@ -10416,32 +10457,32 @@
     </row>
     <row r="9" spans="1:14" s="45" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C9" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>517</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>518</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L9" s="44"/>
       <c r="M9" s="41"/>
@@ -10501,115 +10542,115 @@
   <sheetData>
     <row r="1" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G1" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="I1" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="J1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="U1" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="M1" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>543</v>
-      </c>
-      <c r="R1" s="38" t="s">
+      <c r="V1" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="W1" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="S1" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="T1" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="U1" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="V1" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="W1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="Y1" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Z1" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="AA1" s="38" t="s">
         <v>548</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>550</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="AG1" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
+        <v>554</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="AG1" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="AH1" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>558</v>
-      </c>
       <c r="AJ1" s="38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -10635,7 +10676,7 @@
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="21"/>
@@ -10644,7 +10685,7 @@
     </row>
     <row r="4" spans="1:37" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B4" s="143"/>
     </row>
@@ -10747,105 +10788,105 @@
     </row>
     <row r="9" spans="1:37" s="45" customFormat="1" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G9" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="K9" s="44" t="s">
         <v>567</v>
       </c>
-      <c r="H9" s="44" t="s">
-        <v>569</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>569</v>
-      </c>
-      <c r="K9" s="44" t="s">
+      <c r="L9" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="L9" s="44" t="s">
-        <v>569</v>
-      </c>
       <c r="M9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S9" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="T9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="U9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="V9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="W9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="X9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Y9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AB9" s="44"/>
       <c r="AC9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AD9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AE9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AF9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG9" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AH9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AI9" s="45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AJ9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -10879,73 +10920,73 @@
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K1" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="M1" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>543</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>541</v>
-      </c>
       <c r="N1" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q1" s="38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R1" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="S1" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="T1" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="U1" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="V1" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="U1" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>558</v>
-      </c>
       <c r="W1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -10972,7 +11013,7 @@
     </row>
     <row r="3" spans="1:23" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="21"/>
@@ -10981,7 +11022,7 @@
     </row>
     <row r="4" spans="1:23" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B4" s="143"/>
     </row>
@@ -11057,63 +11098,63 @@
     </row>
     <row r="9" spans="1:23" s="45" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H9" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>626</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="M9" s="42" t="s">
         <v>570</v>
       </c>
-      <c r="I9" s="44" t="s">
-        <v>627</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>569</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>569</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>573</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>571</v>
-      </c>
       <c r="N9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T9" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="U9" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="V9" s="45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -11147,13 +11188,13 @@
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -11200,7 +11241,7 @@
     </row>
     <row r="3" spans="1:23" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="21"/>
@@ -11210,13 +11251,13 @@
     </row>
     <row r="4" spans="1:23" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B4" s="143"/>
     </row>
     <row r="5" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="143" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B5" s="143"/>
     </row>
@@ -11287,10 +11328,10 @@
     </row>
     <row r="10" spans="1:23" s="45" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -11335,31 +11376,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D1" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="38" t="s">
+        <v>685</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>588</v>
       </c>
-      <c r="G1" s="38" t="s">
-        <v>686</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>589</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -11374,7 +11415,7 @@
     </row>
     <row r="3" spans="1:9" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B3" s="142"/>
       <c r="D3" s="21"/>
@@ -11382,13 +11423,13 @@
     </row>
     <row r="4" spans="1:9" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B4" s="143"/>
     </row>
     <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="143" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B5" s="143"/>
     </row>
@@ -11418,22 +11459,22 @@
     </row>
     <row r="9" spans="1:9" s="45" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -11447,9 +11488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11469,37 +11510,37 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="H1" s="108" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="106" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="E1" s="106" t="s">
-        <v>422</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="G1" s="106" t="s">
-        <v>424</v>
-      </c>
-      <c r="H1" s="108" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="106" t="s">
-        <v>311</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11546,32 +11587,32 @@
     <row r="7" spans="1:16" s="43" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="41" t="s">
+        <v>680</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="F7" s="41" t="s">
         <v>682</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="G7" s="41" t="s">
         <v>683</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="H7" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="50" t="s">
         <v>684</v>
       </c>
-      <c r="H7" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>685</v>
-      </c>
       <c r="J7" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L7" s="44"/>
       <c r="M7" s="44"/>
@@ -11711,25 +11752,25 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11779,25 +11820,25 @@
     </row>
     <row r="7" spans="1:16" s="43" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>392</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>393</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="41"/>
@@ -11927,57 +11968,57 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>598</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>605</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="K1" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>603</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>602</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -12049,7 +12090,7 @@
     </row>
     <row r="9" spans="1:15" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -12058,7 +12099,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="41"/>
@@ -12066,7 +12107,7 @@
       <c r="L9" s="44"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O9" s="42"/>
     </row>
@@ -12163,43 +12204,43 @@
   <sheetData>
     <row r="1" spans="1:34" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="124" t="s">
         <v>434</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="124" t="s">
+      <c r="E1" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="125" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="H1" s="125" t="s">
         <v>438</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="I1" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="125" t="s">
+        <v>326</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="J1" s="125" t="s">
-        <v>327</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -12225,7 +12266,7 @@
     </row>
     <row r="2" spans="1:34" s="129" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="127"/>
@@ -12234,7 +12275,7 @@
     </row>
     <row r="3" spans="1:34" s="130" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D3" s="131"/>
       <c r="AH3" s="131"/>
@@ -12297,37 +12338,37 @@
     </row>
     <row r="7" spans="1:34" s="139" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" s="135" t="s">
         <v>444</v>
-      </c>
-      <c r="B7" s="135" t="s">
-        <v>445</v>
       </c>
       <c r="C7" s="135"/>
       <c r="D7" s="135" t="s">
+        <v>445</v>
+      </c>
+      <c r="E7" s="136" t="s">
         <v>446</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="F7" s="136" t="s">
         <v>447</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="G7" s="136" t="s">
         <v>448</v>
-      </c>
-      <c r="G7" s="136" t="s">
-        <v>449</v>
       </c>
       <c r="H7" s="137"/>
       <c r="I7" s="136" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J7" s="138"/>
       <c r="K7" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="L7" s="136" t="s">
         <v>451</v>
       </c>
-      <c r="L7" s="136" t="s">
+      <c r="M7" s="136" t="s">
         <v>452</v>
-      </c>
-      <c r="M7" s="136" t="s">
-        <v>453</v>
       </c>
       <c r="N7" s="138"/>
       <c r="O7" s="138"/>
@@ -13118,9 +13159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13154,123 +13195,123 @@
   <sheetData>
     <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="G1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="N1" s="108" t="s">
+        <v>331</v>
+      </c>
+      <c r="O1" s="108" t="s">
+        <v>384</v>
+      </c>
+      <c r="P1" s="108" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q1" s="108" t="s">
+        <v>666</v>
+      </c>
+      <c r="R1" s="108" t="s">
+        <v>665</v>
+      </c>
+      <c r="S1" s="108" t="s">
+        <v>654</v>
+      </c>
+      <c r="T1" s="108" t="s">
+        <v>318</v>
+      </c>
+      <c r="U1" s="108" t="s">
+        <v>320</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="108" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z1" s="108" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB1" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC1" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD1" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE1" s="108" t="s">
+        <v>695</v>
+      </c>
+      <c r="AF1" s="108" t="s">
+        <v>696</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="108" t="s">
-        <v>318</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="N1" s="108" t="s">
-        <v>332</v>
-      </c>
-      <c r="O1" s="108" t="s">
-        <v>385</v>
-      </c>
-      <c r="P1" s="108" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q1" s="108" t="s">
-        <v>667</v>
-      </c>
-      <c r="R1" s="108" t="s">
-        <v>666</v>
-      </c>
-      <c r="S1" s="108" t="s">
-        <v>655</v>
-      </c>
-      <c r="T1" s="108" t="s">
-        <v>319</v>
-      </c>
-      <c r="U1" s="108" t="s">
-        <v>321</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y1" s="108" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z1" s="108" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB1" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC1" s="108" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD1" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE1" s="108" t="s">
-        <v>696</v>
-      </c>
-      <c r="AF1" s="108" t="s">
-        <v>697</v>
-      </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AJ1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="AL1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -13318,7 +13359,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -13344,114 +13385,114 @@
     </row>
     <row r="7" spans="1:38" s="43" customFormat="1" ht="380.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
       <c r="D7" s="42" t="s">
+        <v>704</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="137" t="s">
+        <v>701</v>
+      </c>
+      <c r="I7" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="50" t="s">
+      <c r="J7" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="K7" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="137" t="s">
-        <v>702</v>
-      </c>
-      <c r="I7" s="49" t="s">
+      <c r="L7" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>701</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>667</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>701</v>
+      </c>
+      <c r="S7" s="50" t="s">
+        <v>671</v>
+      </c>
+      <c r="T7" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="U7" s="137" t="s">
+        <v>701</v>
+      </c>
+      <c r="V7" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="W7" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="X7" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y7" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z7" s="137" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA7" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB7" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC7" s="137" t="s">
+        <v>701</v>
+      </c>
+      <c r="AD7" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="K7" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="L7" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>702</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q7" s="50" t="s">
-        <v>668</v>
-      </c>
-      <c r="R7" s="50" t="s">
-        <v>702</v>
-      </c>
-      <c r="S7" s="50" t="s">
-        <v>672</v>
-      </c>
-      <c r="T7" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="U7" s="137" t="s">
-        <v>702</v>
-      </c>
-      <c r="V7" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="W7" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="X7" s="50" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y7" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z7" s="137" t="s">
-        <v>702</v>
-      </c>
-      <c r="AA7" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB7" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC7" s="137" t="s">
-        <v>702</v>
-      </c>
-      <c r="AD7" s="49" t="s">
+      <c r="AE7" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF7" s="137" t="s">
+        <v>701</v>
+      </c>
+      <c r="AG7" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="AE7" s="49" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF7" s="137" t="s">
-        <v>702</v>
-      </c>
-      <c r="AG7" s="41" t="s">
+      <c r="AH7" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AH7" s="41" t="s">
+      <c r="AI7" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="AI7" s="41" t="s">
-        <v>55</v>
-      </c>
       <c r="AJ7" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK7" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AL7" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:38" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -14338,69 +14379,69 @@
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="E1" s="108" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="G1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="111" t="s">
-        <v>325</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="R1" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="34"/>
@@ -14482,7 +14523,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="49" t="s">
         <v>42</v>
@@ -14494,25 +14535,25 @@
         <v>44</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M8" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N8" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O8" s="41" t="s">
         <v>46</v>
@@ -14521,13 +14562,13 @@
         <v>47</v>
       </c>
       <c r="Q8" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R8" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S8" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -15177,60 +15218,60 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="K1" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -15241,7 +15282,7 @@
     </row>
     <row r="3" spans="1:17" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -15282,55 +15323,55 @@
     </row>
     <row r="7" spans="1:17" s="43" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="41" t="s">
+        <v>652</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>639</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>649</v>
+      </c>
+      <c r="H7" s="149" t="s">
+        <v>647</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>641</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>698</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>699</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>648</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>648</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>643</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q7" s="41" t="s">
         <v>653</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>640</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>641</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>650</v>
-      </c>
-      <c r="H7" s="149" t="s">
-        <v>648</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>642</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>699</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>700</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>649</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>649</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>644</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -15518,33 +15559,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>659</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>661</v>
-      </c>
       <c r="H1" s="35" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -15579,28 +15620,28 @@
     </row>
     <row r="8" spans="1:8" s="43" customFormat="1" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>673</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>674</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="E8" s="42" t="s">
         <v>675</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>676</v>
-      </c>
       <c r="F8" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>661</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>664</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>662</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -15690,117 +15731,117 @@
   <sheetData>
     <row r="1" spans="1:34" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="38" t="s">
-        <v>339</v>
-      </c>
       <c r="J1" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="K1" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="N1" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="O1" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="P1" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q1" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="R1" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="T1" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="Q1" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="T1" s="38" t="s">
+      <c r="U1" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="U1" s="38" t="s">
-        <v>359</v>
-      </c>
       <c r="V1" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="W1" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="X1" s="38" t="s">
-        <v>370</v>
-      </c>
       <c r="Y1" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Z1" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA1" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="AD1" s="38" t="s">
-        <v>380</v>
-      </c>
       <c r="AE1" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF1" s="38" t="s">
+        <v>700</v>
+      </c>
+      <c r="AG1" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="AF1" s="38" t="s">
-        <v>701</v>
-      </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>383</v>
-      </c>
-      <c r="AH1" s="38" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:34" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -15830,106 +15871,106 @@
     </row>
     <row r="7" spans="1:34" s="112" customFormat="1" ht="285.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C7" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="E7" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="F7" s="113" t="s">
         <v>342</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="G7" s="113" t="s">
         <v>343</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="H7" s="113" t="s">
         <v>344</v>
       </c>
-      <c r="H7" s="113" t="s">
+      <c r="I7" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="K7" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L7" s="85" t="s">
+        <v>361</v>
+      </c>
+      <c r="M7" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="N7" s="112" t="s">
+        <v>363</v>
+      </c>
+      <c r="O7" s="112" t="s">
+        <v>363</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q7" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="R7" s="112" t="s">
+        <v>363</v>
+      </c>
+      <c r="S7" s="112" t="s">
         <v>345</v>
       </c>
-      <c r="I7" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="K7" s="85" t="s">
-        <v>361</v>
-      </c>
-      <c r="L7" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="M7" s="85" t="s">
-        <v>363</v>
-      </c>
-      <c r="N7" s="112" t="s">
-        <v>364</v>
-      </c>
-      <c r="O7" s="112" t="s">
-        <v>364</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q7" s="85" t="s">
+      <c r="T7" s="112" t="s">
+        <v>345</v>
+      </c>
+      <c r="U7" s="112" t="s">
+        <v>345</v>
+      </c>
+      <c r="V7" s="85" t="s">
+        <v>371</v>
+      </c>
+      <c r="W7" s="112" t="s">
         <v>366</v>
       </c>
-      <c r="R7" s="112" t="s">
-        <v>364</v>
-      </c>
-      <c r="S7" s="112" t="s">
-        <v>346</v>
-      </c>
-      <c r="T7" s="112" t="s">
-        <v>346</v>
-      </c>
-      <c r="U7" s="112" t="s">
-        <v>346</v>
-      </c>
-      <c r="V7" s="85" t="s">
+      <c r="X7" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y7" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="W7" s="112" t="s">
-        <v>367</v>
-      </c>
-      <c r="X7" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y7" s="85" t="s">
-        <v>373</v>
-      </c>
       <c r="Z7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AA7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AB7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AC7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AD7" s="85" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AE7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AH7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:34" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -16037,9 +16078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -16074,111 +16115,111 @@
   <sheetData>
     <row r="1" spans="1:34" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="109" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="109" t="s">
         <v>313</v>
-      </c>
-      <c r="D1" s="109" t="s">
-        <v>314</v>
       </c>
       <c r="E1" s="87" t="s">
         <v>48</v>
       </c>
       <c r="F1" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="O1" s="108" t="s">
+        <v>668</v>
+      </c>
+      <c r="P1" s="108" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q1" s="108" t="s">
+        <v>654</v>
+      </c>
+      <c r="R1" s="108" t="s">
+        <v>318</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" s="108" t="s">
+        <v>319</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z1" s="108" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1" s="108" t="s">
-        <v>669</v>
-      </c>
-      <c r="P1" s="108" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q1" s="108" t="s">
-        <v>655</v>
-      </c>
-      <c r="R1" s="108" t="s">
-        <v>319</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="V1" s="108" t="s">
-        <v>320</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X1" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y1" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z1" s="108" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="108" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF1" s="108" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AD1" s="108" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF1" s="108" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="AH1" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="20" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -16236,7 +16277,7 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N6" s="62"/>
       <c r="O6" s="19"/>
@@ -16254,98 +16295,98 @@
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" s="90"/>
       <c r="F7" s="44" t="s">
+        <v>705</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="49" t="s">
+      <c r="K7" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="M7" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>669</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>671</v>
+      </c>
+      <c r="R7" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="T7" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="U7" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="V7" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="W7" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="X7" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y7" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="O7" s="49" t="s">
-        <v>670</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q7" s="50" t="s">
-        <v>672</v>
-      </c>
-      <c r="R7" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="S7" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="T7" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="U7" s="44" t="s">
-        <v>426</v>
-      </c>
-      <c r="V7" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="W7" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="X7" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y7" s="49" t="s">
+      <c r="Z7" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA7" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="Z7" s="49" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA7" s="93" t="s">
+      <c r="AB7" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="AB7" s="92" t="s">
+      <c r="AC7" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="AC7" s="92" t="s">
-        <v>55</v>
-      </c>
       <c r="AD7" s="92" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE7" s="92" t="s">
+        <v>330</v>
+      </c>
+      <c r="AF7" s="92" t="s">
         <v>329</v>
       </c>
-      <c r="AE7" s="92" t="s">
-        <v>331</v>
-      </c>
-      <c r="AF7" s="92" t="s">
-        <v>330</v>
-      </c>
       <c r="AG7" s="92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH7" s="92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:34" s="8" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16825,69 +16866,69 @@
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="E1" s="108" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="G1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="111" t="s">
-        <v>325</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="R1" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="34"/>
@@ -16969,7 +17010,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="49" t="s">
         <v>42</v>
@@ -16981,25 +17022,25 @@
         <v>44</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M8" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N8" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O8" s="41" t="s">
         <v>46</v>
@@ -17008,13 +17049,13 @@
         <v>47</v>
       </c>
       <c r="Q8" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R8" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S8" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -17542,7 +17583,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69"/>
       <c r="D69"/>
@@ -17666,60 +17707,60 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="K1" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -17730,7 +17771,7 @@
     </row>
     <row r="3" spans="1:17" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -17771,55 +17812,55 @@
     </row>
     <row r="7" spans="1:17" s="43" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="41" t="s">
+        <v>652</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>639</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>649</v>
+      </c>
+      <c r="H7" s="149" t="s">
+        <v>647</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>641</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>642</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>648</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>648</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>643</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q7" s="41" t="s">
         <v>653</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>640</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>641</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>650</v>
-      </c>
-      <c r="H7" s="149" t="s">
-        <v>648</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>642</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>643</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>649</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>649</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>644</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -18007,33 +18048,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>659</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>661</v>
-      </c>
       <c r="H1" s="35" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -18068,28 +18109,28 @@
     </row>
     <row r="8" spans="1:8" s="43" customFormat="1" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>673</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>674</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="E8" s="42" t="s">
         <v>675</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>676</v>
-      </c>
       <c r="F8" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>661</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>664</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>662</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -18178,19 +18219,19 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>610</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>611</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
@@ -18204,13 +18245,13 @@
     </row>
     <row r="2" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -18282,19 +18323,19 @@
     </row>
     <row r="9" spans="1:15" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="42"/>
@@ -18389,117 +18430,117 @@
   <sheetData>
     <row r="1" spans="1:34" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="38" t="s">
-        <v>339</v>
-      </c>
       <c r="J1" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="K1" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="N1" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="O1" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="P1" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q1" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="R1" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="T1" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="Q1" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="T1" s="38" t="s">
+      <c r="U1" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="U1" s="38" t="s">
-        <v>359</v>
-      </c>
       <c r="V1" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="W1" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="X1" s="38" t="s">
-        <v>370</v>
-      </c>
       <c r="Y1" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Z1" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA1" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="AD1" s="38" t="s">
-        <v>380</v>
-      </c>
       <c r="AE1" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF1" s="38" t="s">
+        <v>700</v>
+      </c>
+      <c r="AG1" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="AF1" s="38" t="s">
-        <v>701</v>
-      </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>383</v>
-      </c>
-      <c r="AH1" s="38" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:34" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -18529,106 +18570,106 @@
     </row>
     <row r="7" spans="1:34" s="112" customFormat="1" ht="285.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C7" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="E7" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="F7" s="113" t="s">
         <v>342</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="G7" s="113" t="s">
         <v>343</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="H7" s="113" t="s">
         <v>344</v>
       </c>
-      <c r="H7" s="113" t="s">
+      <c r="I7" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="K7" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="L7" s="85" t="s">
+        <v>361</v>
+      </c>
+      <c r="M7" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="N7" s="112" t="s">
+        <v>363</v>
+      </c>
+      <c r="O7" s="112" t="s">
+        <v>363</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q7" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="R7" s="112" t="s">
+        <v>363</v>
+      </c>
+      <c r="S7" s="112" t="s">
         <v>345</v>
       </c>
-      <c r="I7" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="K7" s="85" t="s">
-        <v>361</v>
-      </c>
-      <c r="L7" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="M7" s="85" t="s">
-        <v>363</v>
-      </c>
-      <c r="N7" s="112" t="s">
-        <v>364</v>
-      </c>
-      <c r="O7" s="112" t="s">
-        <v>364</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q7" s="85" t="s">
+      <c r="T7" s="112" t="s">
+        <v>345</v>
+      </c>
+      <c r="U7" s="112" t="s">
+        <v>345</v>
+      </c>
+      <c r="V7" s="85" t="s">
+        <v>371</v>
+      </c>
+      <c r="W7" s="112" t="s">
         <v>366</v>
       </c>
-      <c r="R7" s="112" t="s">
-        <v>364</v>
-      </c>
-      <c r="S7" s="112" t="s">
-        <v>346</v>
-      </c>
-      <c r="T7" s="112" t="s">
-        <v>346</v>
-      </c>
-      <c r="U7" s="112" t="s">
-        <v>346</v>
-      </c>
-      <c r="V7" s="85" t="s">
+      <c r="X7" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y7" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="W7" s="112" t="s">
-        <v>367</v>
-      </c>
-      <c r="X7" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y7" s="85" t="s">
-        <v>373</v>
-      </c>
       <c r="Z7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AA7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AB7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AC7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AD7" s="85" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AE7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AH7" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:34" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -18761,29 +18802,29 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>618</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>620</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>621</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="I1" s="38" t="s">
         <v>624</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>625</v>
       </c>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
@@ -18794,13 +18835,13 @@
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:16" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -18876,31 +18917,31 @@
     </row>
     <row r="9" spans="1:16" s="45" customFormat="1" ht="208.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H9" s="42" t="s">
+        <v>631</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>632</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>633</v>
       </c>
       <c r="J9" s="42"/>
       <c r="K9" s="41"/>
@@ -18960,7 +19001,7 @@
     <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -18992,35 +19033,35 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F1" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>276</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19075,19 +19116,19 @@
     </row>
     <row r="9" spans="1:13" s="82" customFormat="1" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="98"/>
@@ -19340,16 +19381,16 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>280</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>281</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -19357,12 +19398,12 @@
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19418,10 +19459,10 @@
     <row r="9" spans="1:13" s="82" customFormat="1" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42"/>
       <c r="B9" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -19675,24 +19716,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>163</v>
-      </c>
       <c r="D1" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -19769,42 +19810,42 @@
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>179</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -19826,37 +19867,37 @@
     </row>
     <row r="8" spans="1:11" s="43" customFormat="1" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="C8" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="D8" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="E8" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="F8" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="F8" s="44" t="s">
+      <c r="G8" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="43" t="s">
+      <c r="I8" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="J8" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="K8" s="44" t="s">
         <v>189</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="77" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -19882,9 +19923,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20105,27 +20149,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20150,9 +20182,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/OV-Template.xlsx
+++ b/OV-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Temp\Import-Export-OneView-Resources-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1E9F1-D82A-49CC-96B5-D24B67AEA49E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00017552-45BE-4650-887C-81D0FA1285C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" firstSheet="28" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" firstSheet="28" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="11" r:id="rId1"/>
@@ -43,16 +43,17 @@
     <sheet name="EnclosureGroup" sheetId="5" r:id="rId28"/>
     <sheet name="LogicalEnclosure" sheetId="25" r:id="rId29"/>
     <sheet name="Server" sheetId="51" r:id="rId30"/>
-    <sheet name="ProfileTemplate" sheetId="26" r:id="rId31"/>
-    <sheet name="ProfileTemplateConnection" sheetId="7" r:id="rId32"/>
-    <sheet name="ProfileTemplateLOCALStorage" sheetId="27" r:id="rId33"/>
-    <sheet name="ProfileTemplateSANStorage" sheetId="32" r:id="rId34"/>
-    <sheet name="ProfileTemplateILO" sheetId="48" r:id="rId35"/>
-    <sheet name="Profile" sheetId="8" r:id="rId36"/>
-    <sheet name="ProfileConnection" sheetId="43" r:id="rId37"/>
-    <sheet name="ProfileLOCALStorage" sheetId="44" r:id="rId38"/>
-    <sheet name="ProfileSANStorage" sheetId="20" r:id="rId39"/>
-    <sheet name="ProfileILO" sheetId="50" r:id="rId40"/>
+    <sheet name="ServerHardwareType" sheetId="62" r:id="rId31"/>
+    <sheet name="ProfileTemplate" sheetId="26" r:id="rId32"/>
+    <sheet name="ProfileTemplateConnection" sheetId="7" r:id="rId33"/>
+    <sheet name="ProfileTemplateLOCALStorage" sheetId="27" r:id="rId34"/>
+    <sheet name="ProfileTemplateSANStorage" sheetId="32" r:id="rId35"/>
+    <sheet name="ProfileTemplateILO" sheetId="48" r:id="rId36"/>
+    <sheet name="Profile" sheetId="8" r:id="rId37"/>
+    <sheet name="ProfileConnection" sheetId="43" r:id="rId38"/>
+    <sheet name="ProfileLOCALStorage" sheetId="44" r:id="rId39"/>
+    <sheet name="ProfileSANStorage" sheetId="20" r:id="rId40"/>
+    <sheet name="ProfileILO" sheetId="50" r:id="rId41"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="709">
   <si>
     <t>#Configure Logical InterConnect Group</t>
   </si>
@@ -4046,6 +4047,15 @@
       </rPr>
       <t>: Before running Import script against this sheet, ensure that the Server Hrdaware Type exists @ detination</t>
     </r>
+  </si>
+  <si>
+    <t># inventory of server hardware types (SHT)</t>
+  </si>
+  <si>
+    <t># Server Hardware Type name</t>
+  </si>
+  <si>
+    <t>formFactor</t>
   </si>
 </sst>
 </file>
@@ -4373,7 +4383,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4779,6 +4789,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -5891,15 +5904,15 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
     </row>
     <row r="15" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="95"/>
@@ -6571,11 +6584,11 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
     </row>
     <row r="15" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -9301,25 +9314,25 @@
       <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="153"/>
     </row>
     <row r="15" spans="1:22" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G15" s="105"/>
@@ -12169,7 +12182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369698DB-315E-4945-AF9B-19A4989F8E29}">
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
@@ -13156,6 +13169,958 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EA50D1-CC7D-4870-9BDC-CCEE0132F1BC}">
+  <dimension ref="A1:AH45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="35.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="4" customWidth="1"/>
+    <col min="5" max="7" width="23.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="51.28515625" style="4" customWidth="1"/>
+    <col min="13" max="15" width="31.140625" style="4" customWidth="1"/>
+    <col min="16" max="17" width="59.85546875" style="4" customWidth="1"/>
+    <col min="18" max="20" width="23" style="4" customWidth="1"/>
+    <col min="21" max="21" width="57.5703125" style="4" customWidth="1"/>
+    <col min="22" max="23" width="59.85546875" style="4" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" customWidth="1"/>
+    <col min="25" max="25" width="59.85546875" style="4" customWidth="1"/>
+    <col min="26" max="27" width="35" customWidth="1"/>
+    <col min="28" max="28" width="59.85546875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="35.140625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="44.140625" style="4" customWidth="1"/>
+    <col min="31" max="31" width="39.140625" style="4" customWidth="1"/>
+    <col min="32" max="32" width="28" style="4" customWidth="1"/>
+    <col min="33" max="33" width="18" style="4" customWidth="1"/>
+    <col min="34" max="34" width="36.140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="124"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+    </row>
+    <row r="2" spans="1:34" s="129" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="127" t="s">
+        <v>706</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="AH2" s="128"/>
+    </row>
+    <row r="3" spans="1:34" s="130" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="130" t="s">
+        <v>442</v>
+      </c>
+      <c r="D3" s="131"/>
+      <c r="AH3" s="131"/>
+    </row>
+    <row r="4" spans="1:34" s="130" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="131"/>
+      <c r="AH4" s="131"/>
+    </row>
+    <row r="5" spans="1:34" s="130" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="131"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="131"/>
+      <c r="AH5" s="133"/>
+    </row>
+    <row r="6" spans="1:34" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="134"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AE6" s="133"/>
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+    </row>
+    <row r="7" spans="1:34" s="139" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="135" t="s">
+        <v>707</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137"/>
+      <c r="V7" s="137"/>
+      <c r="W7" s="137"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="137"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="137"/>
+      <c r="AC7" s="137"/>
+      <c r="AD7" s="137"/>
+      <c r="AE7" s="137"/>
+      <c r="AF7" s="137"/>
+      <c r="AG7" s="137"/>
+      <c r="AH7" s="136"/>
+    </row>
+    <row r="8" spans="1:34" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="19"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="Y9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9" s="19"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="Y10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10" s="19"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="Y11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11" s="19"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="Y12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="Y13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="Y14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="Y15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="Y16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+    </row>
+    <row r="17" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="Y17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+    </row>
+    <row r="18" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="Y18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+    </row>
+    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="Y19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+    </row>
+    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="Y20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="Y21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="Y22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="Y23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="Y24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="Y25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="Y26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="Y27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="Y28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="Y29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="V30"/>
+      <c r="Y30"/>
+      <c r="AB30"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="U31" s="152"/>
+      <c r="V31"/>
+      <c r="Y31"/>
+      <c r="AB31"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D42"/>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AL45"/>
   <sheetViews>
@@ -14347,7 +15312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:T79"/>
   <sheetViews>
@@ -15193,7 +16158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
@@ -15540,7 +16505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:H133"/>
   <sheetViews>
@@ -15703,7 +16668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FD9465-A2A8-41F9-94B0-C974B62D5D44}">
   <dimension ref="A1:AH132"/>
   <sheetViews>
@@ -16074,11 +17039,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
@@ -16834,7 +17799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5476BCB0-492A-4349-9B4C-02D8DB45D26B}">
   <dimension ref="A1:T79"/>
   <sheetViews>
@@ -17682,7 +18647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0605AACD-45C2-4BD4-ABFC-F87EA08DE891}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
@@ -18022,169 +18987,6 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:H133"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" style="150" customWidth="1"/>
-    <col min="3" max="7" width="27.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="53.85546875" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>655</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>672</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>657</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>659</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>660</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" s="43" customFormat="1" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>656</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>673</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>674</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>675</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>661</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-    </row>
-    <row r="14" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18403,6 +19205,169 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:H133"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" style="150" customWidth="1"/>
+    <col min="3" max="7" width="27.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.85546875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>672</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>658</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" s="43" customFormat="1" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>656</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>673</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>674</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>675</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>661</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="14" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F037BE-F09F-442A-B7A2-BD33E0B0B4D3}">
   <dimension ref="A1:AH132"/>
   <sheetViews>
@@ -19923,12 +20888,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20149,15 +21111,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20182,18 +21156,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/OV-Template.xlsx
+++ b/OV-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Temp\Import-Export-OneView-Resources-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00017552-45BE-4650-887C-81D0FA1285C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5A3675-EE43-49D1-B6D3-F417E21D7D4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" firstSheet="28" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" firstSheet="28" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="11" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="713">
   <si>
     <t>#Configure Logical InterConnect Group</t>
   </si>
@@ -4056,6 +4056,18 @@
   </si>
   <si>
     <t>formFactor</t>
+  </si>
+  <si>
+    <t>adapterModel</t>
+  </si>
+  <si>
+    <t>adapterSlot</t>
+  </si>
+  <si>
+    <t># List of adapter model separated by '|'</t>
+  </si>
+  <si>
+    <t># List of adapter slot separated by '|'</t>
   </si>
 </sst>
 </file>
@@ -13174,15 +13186,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" style="4" customWidth="1"/>
     <col min="2" max="3" width="35.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="23.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="23.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="23.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="31.140625" style="4" customWidth="1"/>
@@ -13210,13 +13223,17 @@
         <v>64</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="124" t="s">
+        <v>709</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="F1" s="5"/>
       <c r="G1" s="125"/>
       <c r="H1" s="125"/>
@@ -13325,8 +13342,12 @@
       </c>
       <c r="B7" s="135"/>
       <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="136"/>
+      <c r="D7" s="135" t="s">
+        <v>711</v>
+      </c>
+      <c r="E7" s="135" t="s">
+        <v>712</v>
+      </c>
       <c r="F7" s="136"/>
       <c r="G7" s="136"/>
       <c r="H7" s="137"/>
@@ -20888,12 +20909,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B306D734CEBD84FBBC41786449802E3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="16005ef843dd214786fd86ac676497e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54a4fa2c-6341-4596-b8d8-a2e023346efc" xmlns:ns4="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2325c866b17d621340695414d4ca9b0e" ns3:_="" ns4:_="">
     <xsd:import namespace="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
@@ -21110,6 +21125,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -21120,23 +21141,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7124AFE1-C9C5-46E7-A048-9DDD62293557}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21155,6 +21159,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
   <ds:schemaRefs>

--- a/OV-Template.xlsx
+++ b/OV-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Temp\Import-Export-OneView-Resources-9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Temp\Import-Export-OneView-Resources-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5A3675-EE43-49D1-B6D3-F417E21D7D4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472432EC-306B-47D5-8759-7B5DF543719D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" firstSheet="28" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" firstSheet="31" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="11" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="717">
   <si>
     <t>#Configure Logical InterConnect Group</t>
   </si>
@@ -3929,10 +3929,6 @@
 # This is a manual configuration. Administrator needs to explictly set it for the import iimport operation and apply for server profile only!</t>
   </si>
   <si>
-    <t>#if userDefined is set to TRUE, we will create a connection with custom MAC and WWN
-# This is a manual configuration. Administrator needs to explicitly set it for the import  operation and apply for server profile only!</t>
-  </si>
-  <si>
     <t>#Configure LOCAL Storage for Server profile</t>
   </si>
   <si>
@@ -4069,12 +4065,54 @@
   <si>
     <t># List of adapter slot separated by '|'</t>
   </si>
+  <si>
+    <t>bootTarget</t>
+  </si>
+  <si>
+    <t>targetLUN</t>
+  </si>
+  <si>
+    <t># if bootVolumeSource = 'userDefined'
+#Specify WWPN of target LUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># if bootVolumeSource = 'userDefined'
+# Specify lunID of target LUN </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># By default userDefined = FALSE
+# If you want to use custom MAC/WWPN/WWNN specified in the right columns, you need to set it to TRUE. We will then , we will create a connection with custom MAC and WWN
+# This is a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> configuration. Administrator needs to explicitly set it for the import  operation and apply for server profile only!</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4278,6 +4316,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -8480,7 +8526,7 @@
     <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>676</v>
@@ -9119,7 +9165,7 @@
         <v>305</v>
       </c>
       <c r="H1" s="102" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>96</v>
@@ -9238,7 +9284,7 @@
         <v>306</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I8" s="49" t="s">
         <v>32</v>
@@ -13184,7 +13230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EA50D1-CC7D-4870-9BDC-CCEE0132F1BC}">
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
@@ -13226,13 +13272,13 @@
         <v>434</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="D1" s="124" t="s">
         <v>708</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="E1" s="5" t="s">
         <v>709</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>710</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="125"/>
@@ -13266,7 +13312,7 @@
     </row>
     <row r="2" spans="1:34" s="129" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="127"/>
@@ -13338,15 +13384,15 @@
     </row>
     <row r="7" spans="1:34" s="139" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B7" s="135"/>
       <c r="C7" s="135"/>
       <c r="D7" s="135" t="s">
+        <v>710</v>
+      </c>
+      <c r="E7" s="135" t="s">
         <v>711</v>
-      </c>
-      <c r="E7" s="135" t="s">
-        <v>712</v>
       </c>
       <c r="F7" s="136"/>
       <c r="G7" s="136"/>
@@ -14271,10 +14317,10 @@
         <v>138</v>
       </c>
       <c r="AE1" s="108" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF1" s="108" t="s">
         <v>695</v>
-      </c>
-      <c r="AF1" s="108" t="s">
-        <v>696</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>129</v>
@@ -14376,7 +14422,7 @@
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
       <c r="D7" s="42" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>58</v>
@@ -14388,7 +14434,7 @@
         <v>197</v>
       </c>
       <c r="H7" s="137" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I7" s="49" t="s">
         <v>50</v>
@@ -14409,16 +14455,16 @@
         <v>332</v>
       </c>
       <c r="O7" s="50" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P7" s="50" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q7" s="50" t="s">
         <v>667</v>
       </c>
       <c r="R7" s="50" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="S7" s="50" t="s">
         <v>671</v>
@@ -14427,7 +14473,7 @@
         <v>143</v>
       </c>
       <c r="U7" s="137" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="V7" s="50" t="s">
         <v>245</v>
@@ -14442,7 +14488,7 @@
         <v>144</v>
       </c>
       <c r="Z7" s="137" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AA7" s="50" t="s">
         <v>247</v>
@@ -14451,7 +14497,7 @@
         <v>137</v>
       </c>
       <c r="AC7" s="137" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AD7" s="49" t="s">
         <v>51</v>
@@ -14460,7 +14506,7 @@
         <v>386</v>
       </c>
       <c r="AF7" s="137" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AG7" s="41" t="s">
         <v>52</v>
@@ -16336,10 +16382,10 @@
         <v>641</v>
       </c>
       <c r="J7" s="41" t="s">
+        <v>697</v>
+      </c>
+      <c r="K7" s="41" t="s">
         <v>698</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>699</v>
       </c>
       <c r="L7" s="50" t="s">
         <v>152</v>
@@ -16810,7 +16856,7 @@
         <v>381</v>
       </c>
       <c r="AF1" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AG1" s="38" t="s">
         <v>382</v>
@@ -17288,7 +17334,7 @@
       </c>
       <c r="E7" s="90"/>
       <c r="F7" s="44" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G7" s="48" t="s">
         <v>58</v>
@@ -17822,11 +17868,11 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5476BCB0-492A-4349-9B4C-02D8DB45D26B}">
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17840,17 +17886,19 @@
     <col min="8" max="8" width="40.7109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="33.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="4" customWidth="1"/>
-    <col min="12" max="13" width="23.42578125" customWidth="1"/>
-    <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="18" style="4" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" customWidth="1"/>
-    <col min="19" max="19" width="21" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" style="4" customWidth="1"/>
+    <col min="14" max="15" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="18" style="4" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>145</v>
       </c>
@@ -17882,37 +17930,43 @@
         <v>691</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="111" t="s">
+      <c r="N1" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N1" s="111" t="s">
+      <c r="P1" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>238</v>
       </c>
@@ -17922,8 +17976,10 @@
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:20" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="1:22" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
@@ -17932,8 +17988,10 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
@@ -17942,8 +18000,10 @@
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
-    </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>38</v>
       </c>
@@ -17952,8 +18012,10 @@
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
@@ -17963,11 +18025,13 @@
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
       <c r="S6" s="23"/>
-    </row>
-    <row r="7" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+    </row>
+    <row r="7" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -17981,11 +18045,13 @@
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
       <c r="S7" s="19"/>
-    </row>
-    <row r="8" spans="1:20" s="82" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+    </row>
+    <row r="8" spans="1:22" s="82" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>39</v>
       </c>
@@ -18017,35 +18083,41 @@
         <v>689</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>45</v>
+        <v>715</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>716</v>
       </c>
       <c r="N8" s="50" t="s">
         <v>212</v>
       </c>
       <c r="O8" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q8" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="41" t="s">
+      <c r="R8" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="41" t="s">
+      <c r="S8" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="R8" s="42" t="s">
+      <c r="T8" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="S8" s="49" t="s">
+      <c r="U8" s="49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="D11"/>
@@ -18053,8 +18125,10 @@
       <c r="F11"/>
       <c r="H11"/>
       <c r="J11"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="D12"/>
@@ -18062,8 +18136,10 @@
       <c r="F12"/>
       <c r="H12"/>
       <c r="J12"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="D13"/>
@@ -18071,8 +18147,10 @@
       <c r="F13"/>
       <c r="H13"/>
       <c r="J13"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="D14"/>
@@ -18080,8 +18158,10 @@
       <c r="F14"/>
       <c r="H14"/>
       <c r="J14"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="D15"/>
@@ -18089,8 +18169,10 @@
       <c r="F15"/>
       <c r="H15"/>
       <c r="J15"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="D16"/>
@@ -18098,8 +18180,10 @@
       <c r="F16"/>
       <c r="H16"/>
       <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="D17"/>
@@ -18107,8 +18191,10 @@
       <c r="F17"/>
       <c r="H17"/>
       <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="D18"/>
@@ -18116,8 +18202,10 @@
       <c r="F18"/>
       <c r="H18"/>
       <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="D19"/>
@@ -18125,8 +18213,10 @@
       <c r="F19"/>
       <c r="H19"/>
       <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="D20"/>
@@ -18134,8 +18224,10 @@
       <c r="F20"/>
       <c r="H20"/>
       <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="D21"/>
@@ -18143,8 +18235,10 @@
       <c r="F21"/>
       <c r="H21"/>
       <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="D22"/>
@@ -18152,8 +18246,10 @@
       <c r="F22"/>
       <c r="H22"/>
       <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23"/>
@@ -18161,8 +18257,10 @@
       <c r="F23"/>
       <c r="H23"/>
       <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="D24"/>
@@ -18170,8 +18268,10 @@
       <c r="F24"/>
       <c r="H24"/>
       <c r="J24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="D25"/>
@@ -18179,8 +18279,10 @@
       <c r="F25"/>
       <c r="H25"/>
       <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="D26"/>
@@ -18188,8 +18290,10 @@
       <c r="F26"/>
       <c r="H26"/>
       <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="D27"/>
@@ -18197,8 +18301,10 @@
       <c r="F27"/>
       <c r="H27"/>
       <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="D28"/>
@@ -18206,8 +18312,10 @@
       <c r="F28"/>
       <c r="H28"/>
       <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="D29"/>
@@ -18215,8 +18323,10 @@
       <c r="F29"/>
       <c r="H29"/>
       <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="D30"/>
@@ -18224,8 +18334,10 @@
       <c r="F30"/>
       <c r="H30"/>
       <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="D31"/>
@@ -18233,8 +18345,10 @@
       <c r="F31"/>
       <c r="H31"/>
       <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="D32"/>
@@ -18242,8 +18356,10 @@
       <c r="F32"/>
       <c r="H32"/>
       <c r="J32"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="D33"/>
@@ -18251,8 +18367,10 @@
       <c r="F33"/>
       <c r="H33"/>
       <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="D34"/>
@@ -18260,8 +18378,10 @@
       <c r="F34"/>
       <c r="H34"/>
       <c r="J34"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34"/>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="D35"/>
@@ -18269,8 +18389,10 @@
       <c r="F35"/>
       <c r="H35"/>
       <c r="J35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35"/>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="D36"/>
@@ -18278,8 +18400,10 @@
       <c r="F36"/>
       <c r="H36"/>
       <c r="J36"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36"/>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="D37"/>
@@ -18287,8 +18411,10 @@
       <c r="F37"/>
       <c r="H37"/>
       <c r="J37"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37"/>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="D38"/>
@@ -18296,8 +18422,10 @@
       <c r="F38"/>
       <c r="H38"/>
       <c r="J38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38"/>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="D39"/>
@@ -18305,8 +18433,10 @@
       <c r="F39"/>
       <c r="H39"/>
       <c r="J39"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="D40"/>
@@ -18314,8 +18444,10 @@
       <c r="F40"/>
       <c r="H40"/>
       <c r="J40"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="D41"/>
@@ -18323,8 +18455,10 @@
       <c r="F41"/>
       <c r="H41"/>
       <c r="J41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="D42"/>
@@ -18332,8 +18466,10 @@
       <c r="F42"/>
       <c r="H42"/>
       <c r="J42"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42"/>
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="D43"/>
@@ -18341,8 +18477,10 @@
       <c r="F43"/>
       <c r="H43"/>
       <c r="J43"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43"/>
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="D44"/>
@@ -18350,8 +18488,10 @@
       <c r="F44"/>
       <c r="H44"/>
       <c r="J44"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44"/>
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="D45"/>
@@ -18359,8 +18499,10 @@
       <c r="F45"/>
       <c r="H45"/>
       <c r="J45"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45"/>
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="D46"/>
@@ -18368,8 +18510,10 @@
       <c r="F46"/>
       <c r="H46"/>
       <c r="J46"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46"/>
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="D47"/>
@@ -18377,8 +18521,10 @@
       <c r="F47"/>
       <c r="H47"/>
       <c r="J47"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47"/>
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="D48"/>
@@ -18386,8 +18532,10 @@
       <c r="F48"/>
       <c r="H48"/>
       <c r="J48"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48"/>
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="D49"/>
@@ -18395,8 +18543,10 @@
       <c r="F49"/>
       <c r="H49"/>
       <c r="J49"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49"/>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="D50"/>
@@ -18404,8 +18554,10 @@
       <c r="F50"/>
       <c r="H50"/>
       <c r="J50"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50"/>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="D51"/>
@@ -18413,8 +18565,10 @@
       <c r="F51"/>
       <c r="H51"/>
       <c r="J51"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51"/>
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="D52"/>
@@ -18422,8 +18576,10 @@
       <c r="F52"/>
       <c r="H52"/>
       <c r="J52"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52"/>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="D53"/>
@@ -18431,8 +18587,10 @@
       <c r="F53"/>
       <c r="H53"/>
       <c r="J53"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53"/>
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="D54"/>
@@ -18440,8 +18598,10 @@
       <c r="F54"/>
       <c r="H54"/>
       <c r="J54"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54"/>
+      <c r="L54"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="D55"/>
@@ -18449,8 +18609,10 @@
       <c r="F55"/>
       <c r="H55"/>
       <c r="J55"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55"/>
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="D56"/>
@@ -18458,8 +18620,10 @@
       <c r="F56"/>
       <c r="H56"/>
       <c r="J56"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56"/>
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="D57"/>
@@ -18467,8 +18631,10 @@
       <c r="F57"/>
       <c r="H57"/>
       <c r="J57"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="D58"/>
@@ -18476,8 +18642,10 @@
       <c r="F58"/>
       <c r="H58"/>
       <c r="J58"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58"/>
+      <c r="L58"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
       <c r="D59"/>
@@ -18485,8 +18653,10 @@
       <c r="F59"/>
       <c r="H59"/>
       <c r="J59"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59"/>
+      <c r="L59"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="D60"/>
@@ -18494,8 +18664,10 @@
       <c r="F60"/>
       <c r="H60"/>
       <c r="J60"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="D61"/>
@@ -18503,8 +18675,10 @@
       <c r="F61"/>
       <c r="H61"/>
       <c r="J61"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61"/>
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
       <c r="D62"/>
@@ -18512,8 +18686,10 @@
       <c r="F62"/>
       <c r="H62"/>
       <c r="J62"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62"/>
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="D63"/>
@@ -18521,8 +18697,10 @@
       <c r="F63"/>
       <c r="H63"/>
       <c r="J63"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63"/>
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="D64"/>
@@ -18530,8 +18708,10 @@
       <c r="F64"/>
       <c r="H64"/>
       <c r="J64"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64"/>
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="D65"/>
@@ -18539,8 +18719,10 @@
       <c r="F65"/>
       <c r="H65"/>
       <c r="J65"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65"/>
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="D66"/>
@@ -18548,8 +18730,10 @@
       <c r="F66"/>
       <c r="H66"/>
       <c r="J66"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66"/>
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="D67"/>
@@ -18557,8 +18741,10 @@
       <c r="F67"/>
       <c r="H67"/>
       <c r="J67"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67"/>
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="D68"/>
@@ -18566,8 +18752,10 @@
       <c r="F68"/>
       <c r="H68"/>
       <c r="J68"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68"/>
+      <c r="L68"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -18577,8 +18765,10 @@
       <c r="F69"/>
       <c r="H69"/>
       <c r="J69"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69"/>
+      <c r="L69"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
       <c r="D70"/>
@@ -18586,8 +18776,10 @@
       <c r="F70"/>
       <c r="H70"/>
       <c r="J70"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70"/>
+      <c r="L70"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="D71"/>
@@ -18595,8 +18787,10 @@
       <c r="F71"/>
       <c r="H71"/>
       <c r="J71"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71"/>
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="D72"/>
@@ -18604,8 +18798,10 @@
       <c r="F72"/>
       <c r="H72"/>
       <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72"/>
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="D73"/>
@@ -18613,8 +18809,10 @@
       <c r="F73"/>
       <c r="H73"/>
       <c r="J73"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73"/>
+      <c r="L73"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="D74"/>
@@ -18622,8 +18820,10 @@
       <c r="F74"/>
       <c r="H74"/>
       <c r="J74"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74"/>
+      <c r="L74"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="D75"/>
@@ -18631,8 +18831,10 @@
       <c r="F75"/>
       <c r="H75"/>
       <c r="J75"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75"/>
+      <c r="L75"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="D76"/>
@@ -18640,8 +18842,10 @@
       <c r="F76"/>
       <c r="H76"/>
       <c r="J76"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76"/>
+      <c r="L76"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="D77"/>
@@ -18649,8 +18853,10 @@
       <c r="F77"/>
       <c r="H77"/>
       <c r="J77"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77"/>
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="D78"/>
@@ -18658,8 +18864,10 @@
       <c r="F78"/>
       <c r="H78"/>
       <c r="J78"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78"/>
+      <c r="L78"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D79"/>
     </row>
   </sheetData>
@@ -18746,7 +18954,7 @@
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -19509,7 +19717,7 @@
         <v>381</v>
       </c>
       <c r="AF1" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AG1" s="38" t="s">
         <v>382</v>
@@ -20909,6 +21117,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B306D734CEBD84FBBC41786449802E3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="16005ef843dd214786fd86ac676497e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54a4fa2c-6341-4596-b8d8-a2e023346efc" xmlns:ns4="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2325c866b17d621340695414d4ca9b0e" ns3:_="" ns4:_="">
     <xsd:import namespace="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
@@ -21125,22 +21348,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7124AFE1-C9C5-46E7-A048-9DDD62293557}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21157,29 +21390,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OV-Template.xlsx
+++ b/OV-Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Temp\Import-Export-OneView-Resources-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Temp\Import-Export-OneView-Resources-13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472432EC-306B-47D5-8759-7B5DF543719D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75964978-0458-4C3D-9268-9171E19782C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" firstSheet="31" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="715">
   <si>
     <t>#Configure Logical InterConnect Group</t>
   </si>
@@ -4066,20 +4066,6 @@
     <t># List of adapter slot separated by '|'</t>
   </si>
   <si>
-    <t>bootTarget</t>
-  </si>
-  <si>
-    <t>targetLUN</t>
-  </si>
-  <si>
-    <t># if bootVolumeSource = 'userDefined'
-#Specify WWPN of target LUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># if bootVolumeSource = 'userDefined'
-# Specify lunID of target LUN </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"># By default userDefined = FALSE
 # If you want to use custom MAC/WWPN/WWNN specified in the right columns, you need to set it to TRUE. We will then , we will create a connection with custom MAC and WWN
@@ -4106,6 +4092,14 @@
       </rPr>
       <t xml:space="preserve"> configuration. Administrator needs to explicitly set it for the import  operation and apply for server profile only!</t>
     </r>
+  </si>
+  <si>
+    <t>targets</t>
+  </si>
+  <si>
+    <t># if bootVolumeSource = 'userDefined'
+#Specify an array of hash:
+# {targetWWPN, Lun}</t>
   </si>
 </sst>
 </file>
@@ -17868,11 +17862,11 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5476BCB0-492A-4349-9B4C-02D8DB45D26B}">
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17887,18 +17881,17 @@
     <col min="9" max="9" width="33.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="24.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" style="4" customWidth="1"/>
-    <col min="14" max="15" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="18" style="4" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" customWidth="1"/>
-    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" style="4" customWidth="1"/>
+    <col min="13" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="18" style="4" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
+    <col min="20" max="20" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>145</v>
       </c>
@@ -17930,43 +17923,40 @@
         <v>691</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="M1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="N1" s="111" t="s">
+      <c r="M1" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="P1" s="111" t="s">
+      <c r="O1" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="S1" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="T1" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="U1" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>238</v>
       </c>
@@ -17977,9 +17967,8 @@
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-    </row>
-    <row r="3" spans="1:22" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:21" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
@@ -17989,9 +17978,8 @@
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
@@ -18001,9 +17989,8 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>38</v>
       </c>
@@ -18013,9 +18000,8 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
@@ -18026,12 +18012,11 @@
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-    </row>
-    <row r="7" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -18046,12 +18031,11 @@
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="R7" s="19"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-    </row>
-    <row r="8" spans="1:22" s="82" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:21" s="82" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>39</v>
       </c>
@@ -18086,38 +18070,35 @@
         <v>714</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M8" s="50" t="s">
-        <v>716</v>
-      </c>
-      <c r="N8" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="N8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="50" t="s">
+      <c r="O8" s="50" t="s">
         <v>212</v>
       </c>
+      <c r="P8" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="Q8" s="41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R8" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="42" t="s">
+      <c r="S8" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="U8" s="49" t="s">
+      <c r="T8" s="49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="D11"/>
@@ -18126,9 +18107,8 @@
       <c r="H11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="D12"/>
@@ -18137,9 +18117,8 @@
       <c r="H12"/>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="D13"/>
@@ -18148,9 +18127,8 @@
       <c r="H13"/>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="D14"/>
@@ -18159,9 +18137,8 @@
       <c r="H14"/>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="D15"/>
@@ -18170,9 +18147,8 @@
       <c r="H15"/>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="D16"/>
@@ -18181,9 +18157,8 @@
       <c r="H16"/>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="D17"/>
@@ -18192,9 +18167,8 @@
       <c r="H17"/>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="D18"/>
@@ -18203,9 +18177,8 @@
       <c r="H18"/>
       <c r="J18"/>
       <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="D19"/>
@@ -18214,9 +18187,8 @@
       <c r="H19"/>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="D20"/>
@@ -18225,9 +18197,8 @@
       <c r="H20"/>
       <c r="J20"/>
       <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="D21"/>
@@ -18236,9 +18207,8 @@
       <c r="H21"/>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="D22"/>
@@ -18247,9 +18217,8 @@
       <c r="H22"/>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23"/>
@@ -18258,9 +18227,8 @@
       <c r="H23"/>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="D24"/>
@@ -18269,9 +18237,8 @@
       <c r="H24"/>
       <c r="J24"/>
       <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="D25"/>
@@ -18280,9 +18247,8 @@
       <c r="H25"/>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="D26"/>
@@ -18291,9 +18257,8 @@
       <c r="H26"/>
       <c r="J26"/>
       <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="D27"/>
@@ -18302,9 +18267,8 @@
       <c r="H27"/>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="D28"/>
@@ -18313,9 +18277,8 @@
       <c r="H28"/>
       <c r="J28"/>
       <c r="K28"/>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="D29"/>
@@ -18324,9 +18287,8 @@
       <c r="H29"/>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="D30"/>
@@ -18335,9 +18297,8 @@
       <c r="H30"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="D31"/>
@@ -18346,9 +18307,8 @@
       <c r="H31"/>
       <c r="J31"/>
       <c r="K31"/>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="D32"/>
@@ -18357,9 +18317,8 @@
       <c r="H32"/>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="L32"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="D33"/>
@@ -18368,9 +18327,8 @@
       <c r="H33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="L33"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="D34"/>
@@ -18379,9 +18337,8 @@
       <c r="H34"/>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="L34"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="D35"/>
@@ -18390,9 +18347,8 @@
       <c r="H35"/>
       <c r="J35"/>
       <c r="K35"/>
-      <c r="L35"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="D36"/>
@@ -18401,9 +18357,8 @@
       <c r="H36"/>
       <c r="J36"/>
       <c r="K36"/>
-      <c r="L36"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="D37"/>
@@ -18412,9 +18367,8 @@
       <c r="H37"/>
       <c r="J37"/>
       <c r="K37"/>
-      <c r="L37"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="D38"/>
@@ -18423,9 +18377,8 @@
       <c r="H38"/>
       <c r="J38"/>
       <c r="K38"/>
-      <c r="L38"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="D39"/>
@@ -18434,9 +18387,8 @@
       <c r="H39"/>
       <c r="J39"/>
       <c r="K39"/>
-      <c r="L39"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="D40"/>
@@ -18445,9 +18397,8 @@
       <c r="H40"/>
       <c r="J40"/>
       <c r="K40"/>
-      <c r="L40"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="D41"/>
@@ -18456,9 +18407,8 @@
       <c r="H41"/>
       <c r="J41"/>
       <c r="K41"/>
-      <c r="L41"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="D42"/>
@@ -18467,9 +18417,8 @@
       <c r="H42"/>
       <c r="J42"/>
       <c r="K42"/>
-      <c r="L42"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="D43"/>
@@ -18478,9 +18427,8 @@
       <c r="H43"/>
       <c r="J43"/>
       <c r="K43"/>
-      <c r="L43"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="D44"/>
@@ -18489,9 +18437,8 @@
       <c r="H44"/>
       <c r="J44"/>
       <c r="K44"/>
-      <c r="L44"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="D45"/>
@@ -18500,9 +18447,8 @@
       <c r="H45"/>
       <c r="J45"/>
       <c r="K45"/>
-      <c r="L45"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="D46"/>
@@ -18511,9 +18457,8 @@
       <c r="H46"/>
       <c r="J46"/>
       <c r="K46"/>
-      <c r="L46"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="D47"/>
@@ -18522,9 +18467,8 @@
       <c r="H47"/>
       <c r="J47"/>
       <c r="K47"/>
-      <c r="L47"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="D48"/>
@@ -18533,9 +18477,8 @@
       <c r="H48"/>
       <c r="J48"/>
       <c r="K48"/>
-      <c r="L48"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="D49"/>
@@ -18544,9 +18487,8 @@
       <c r="H49"/>
       <c r="J49"/>
       <c r="K49"/>
-      <c r="L49"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="D50"/>
@@ -18555,9 +18497,8 @@
       <c r="H50"/>
       <c r="J50"/>
       <c r="K50"/>
-      <c r="L50"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="D51"/>
@@ -18566,9 +18507,8 @@
       <c r="H51"/>
       <c r="J51"/>
       <c r="K51"/>
-      <c r="L51"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="D52"/>
@@ -18577,9 +18517,8 @@
       <c r="H52"/>
       <c r="J52"/>
       <c r="K52"/>
-      <c r="L52"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="D53"/>
@@ -18588,9 +18527,8 @@
       <c r="H53"/>
       <c r="J53"/>
       <c r="K53"/>
-      <c r="L53"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="D54"/>
@@ -18599,9 +18537,8 @@
       <c r="H54"/>
       <c r="J54"/>
       <c r="K54"/>
-      <c r="L54"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="D55"/>
@@ -18610,9 +18547,8 @@
       <c r="H55"/>
       <c r="J55"/>
       <c r="K55"/>
-      <c r="L55"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="D56"/>
@@ -18621,9 +18557,8 @@
       <c r="H56"/>
       <c r="J56"/>
       <c r="K56"/>
-      <c r="L56"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="D57"/>
@@ -18632,9 +18567,8 @@
       <c r="H57"/>
       <c r="J57"/>
       <c r="K57"/>
-      <c r="L57"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="D58"/>
@@ -18643,9 +18577,8 @@
       <c r="H58"/>
       <c r="J58"/>
       <c r="K58"/>
-      <c r="L58"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
       <c r="D59"/>
@@ -18654,9 +18587,8 @@
       <c r="H59"/>
       <c r="J59"/>
       <c r="K59"/>
-      <c r="L59"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="D60"/>
@@ -18665,9 +18597,8 @@
       <c r="H60"/>
       <c r="J60"/>
       <c r="K60"/>
-      <c r="L60"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="D61"/>
@@ -18676,9 +18607,8 @@
       <c r="H61"/>
       <c r="J61"/>
       <c r="K61"/>
-      <c r="L61"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
       <c r="D62"/>
@@ -18687,9 +18617,8 @@
       <c r="H62"/>
       <c r="J62"/>
       <c r="K62"/>
-      <c r="L62"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="D63"/>
@@ -18698,9 +18627,8 @@
       <c r="H63"/>
       <c r="J63"/>
       <c r="K63"/>
-      <c r="L63"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="D64"/>
@@ -18709,9 +18637,8 @@
       <c r="H64"/>
       <c r="J64"/>
       <c r="K64"/>
-      <c r="L64"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="D65"/>
@@ -18720,9 +18647,8 @@
       <c r="H65"/>
       <c r="J65"/>
       <c r="K65"/>
-      <c r="L65"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="D66"/>
@@ -18731,9 +18657,8 @@
       <c r="H66"/>
       <c r="J66"/>
       <c r="K66"/>
-      <c r="L66"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="D67"/>
@@ -18742,9 +18667,8 @@
       <c r="H67"/>
       <c r="J67"/>
       <c r="K67"/>
-      <c r="L67"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="D68"/>
@@ -18753,9 +18677,8 @@
       <c r="H68"/>
       <c r="J68"/>
       <c r="K68"/>
-      <c r="L68"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -18766,9 +18689,8 @@
       <c r="H69"/>
       <c r="J69"/>
       <c r="K69"/>
-      <c r="L69"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
       <c r="D70"/>
@@ -18777,9 +18699,8 @@
       <c r="H70"/>
       <c r="J70"/>
       <c r="K70"/>
-      <c r="L70"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="D71"/>
@@ -18788,9 +18709,8 @@
       <c r="H71"/>
       <c r="J71"/>
       <c r="K71"/>
-      <c r="L71"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="D72"/>
@@ -18799,9 +18719,8 @@
       <c r="H72"/>
       <c r="J72"/>
       <c r="K72"/>
-      <c r="L72"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="D73"/>
@@ -18810,9 +18729,8 @@
       <c r="H73"/>
       <c r="J73"/>
       <c r="K73"/>
-      <c r="L73"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="D74"/>
@@ -18821,9 +18739,8 @@
       <c r="H74"/>
       <c r="J74"/>
       <c r="K74"/>
-      <c r="L74"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="D75"/>
@@ -18832,9 +18749,8 @@
       <c r="H75"/>
       <c r="J75"/>
       <c r="K75"/>
-      <c r="L75"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="D76"/>
@@ -18843,9 +18759,8 @@
       <c r="H76"/>
       <c r="J76"/>
       <c r="K76"/>
-      <c r="L76"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="D77"/>
@@ -18854,9 +18769,8 @@
       <c r="H77"/>
       <c r="J77"/>
       <c r="K77"/>
-      <c r="L77"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="D78"/>
@@ -18865,9 +18779,8 @@
       <c r="H78"/>
       <c r="J78"/>
       <c r="K78"/>
-      <c r="L78"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D79"/>
     </row>
   </sheetData>
@@ -21123,15 +21036,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B306D734CEBD84FBBC41786449802E3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="16005ef843dd214786fd86ac676497e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54a4fa2c-6341-4596-b8d8-a2e023346efc" xmlns:ns4="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2325c866b17d621340695414d4ca9b0e" ns3:_="" ns4:_="">
     <xsd:import namespace="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
@@ -21348,6 +21252,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
   <ds:schemaRefs>
@@ -21366,14 +21279,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7124AFE1-C9C5-46E7-A048-9DDD62293557}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21390,4 +21295,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/OV-Template.xlsx
+++ b/OV-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Temp\Import-Export-OneView-Resources-13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Repos\Import-Export-OneView-Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75964978-0458-4C3D-9268-9171E19782C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE0812F-2752-4554-8C62-F10989630287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" firstSheet="31" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="723" firstSheet="31" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="11" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="714">
   <si>
     <t>#Configure Logical InterConnect Group</t>
   </si>
@@ -2465,9 +2465,6 @@
   </si>
   <si>
     <t>connectionConsistencyChecking</t>
-  </si>
-  <si>
-    <t>manageMp</t>
   </si>
   <si>
     <t># Manage iLO settings</t>
@@ -5544,10 +5541,10 @@
         <v>64</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>395</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>396</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>280</v>
@@ -5560,12 +5557,12 @@
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5620,13 +5617,13 @@
     </row>
     <row r="9" spans="1:13" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>397</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>398</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="44"/>
@@ -5686,13 +5683,13 @@
         <v>195</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
@@ -5700,12 +5697,12 @@
     </row>
     <row r="2" spans="1:14" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5760,19 +5757,19 @@
     </row>
     <row r="9" spans="1:14" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>487</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>488</v>
-      </c>
       <c r="C9" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>493</v>
-      </c>
       <c r="E9" s="82" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="42"/>
@@ -5822,16 +5819,16 @@
         <v>168</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>262</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>261</v>
@@ -5848,7 +5845,7 @@
     </row>
     <row r="3" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B3" s="21"/>
       <c r="D3" s="34"/>
@@ -5857,7 +5854,7 @@
     </row>
     <row r="4" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -5891,22 +5888,22 @@
     </row>
     <row r="8" spans="1:12" s="43" customFormat="1" ht="228.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E8" s="48" t="s">
         <v>307</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G8" s="49" t="s">
         <v>308</v>
@@ -6482,10 +6479,10 @@
         <v>242</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>196</v>
@@ -6497,22 +6494,22 @@
         <v>168</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>475</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6526,7 +6523,7 @@
     </row>
     <row r="3" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -6536,7 +6533,7 @@
     </row>
     <row r="4" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -6560,40 +6557,40 @@
     </row>
     <row r="8" spans="1:12" s="43" customFormat="1" ht="228.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>461</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>462</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>459</v>
-      </c>
       <c r="F8" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K8" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="L8" s="42" t="s">
         <v>477</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -7205,7 +7202,7 @@
         <v>172</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>110</v>
@@ -7301,7 +7298,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>24</v>
@@ -7381,7 +7378,7 @@
         <v>243</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="5"/>
@@ -7455,7 +7452,7 @@
         <v>244</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="54"/>
@@ -7517,10 +7514,10 @@
         <v>72</v>
       </c>
       <c r="E1" s="100" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1" s="100" t="s">
         <v>404</v>
-      </c>
-      <c r="F1" s="100" t="s">
-        <v>405</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>66</v>
@@ -7612,7 +7609,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>12</v>
@@ -7621,10 +7618,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="61" t="s">
+        <v>401</v>
+      </c>
+      <c r="F7" s="61" t="s">
         <v>402</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>403</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>283</v>
@@ -8008,7 +8005,7 @@
         <v>222</v>
       </c>
       <c r="D1" s="108" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>71</v>
@@ -8145,7 +8142,7 @@
         <v>284</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>221</v>
@@ -8218,7 +8215,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="100" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>288</v>
@@ -8293,13 +8290,13 @@
         <v>284</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>286</v>
@@ -8447,12 +8444,12 @@
         <v>169</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="129"/>
@@ -8460,7 +8457,7 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B3" s="130"/>
       <c r="C3" s="130"/>
@@ -8504,12 +8501,12 @@
     </row>
     <row r="9" spans="1:5" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B9" s="136"/>
       <c r="C9" s="136"/>
       <c r="D9" s="135" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E9" s="42"/>
     </row>
@@ -8520,10 +8517,10 @@
     <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>169</v>
@@ -8589,7 +8586,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="106" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>93</v>
@@ -8601,10 +8598,10 @@
         <v>297</v>
       </c>
       <c r="I1" s="104" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J1" s="104" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>158</v>
@@ -8631,7 +8628,7 @@
         <v>159</v>
       </c>
       <c r="S1" s="108" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>86</v>
@@ -8661,7 +8658,7 @@
         <v>287</v>
       </c>
       <c r="AC1" s="104" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8745,7 +8742,7 @@
         <v>92</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>214</v>
@@ -8757,10 +8754,10 @@
         <v>94</v>
       </c>
       <c r="I7" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="J7" s="117" t="s">
         <v>412</v>
-      </c>
-      <c r="J7" s="117" t="s">
-        <v>413</v>
       </c>
       <c r="K7" s="63" t="s">
         <v>74</v>
@@ -8787,7 +8784,7 @@
         <v>74</v>
       </c>
       <c r="S7" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T7" s="44" t="s">
         <v>88</v>
@@ -8817,7 +8814,7 @@
         <v>231</v>
       </c>
       <c r="AC7" s="117" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8972,20 +8969,40 @@
       <c r="V16"/>
       <c r="AC16"/>
     </row>
-    <row r="17" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="D17"/>
+      <c r="E17"/>
       <c r="F17" s="59"/>
-      <c r="T17" s="4"/>
-      <c r="W17" s="4"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="O17"/>
+      <c r="U17"/>
+      <c r="V17"/>
       <c r="AB17" s="4"/>
-    </row>
-    <row r="18" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="AC17"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="D18"/>
+      <c r="E18"/>
       <c r="F18" s="59"/>
-      <c r="K18" s="4"/>
-      <c r="W18" s="4"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="O18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="AC18"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19"/>
@@ -9002,81 +9019,240 @@
       <c r="V19"/>
       <c r="AC19"/>
     </row>
-    <row r="20" spans="1:29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K20" s="4"/>
-      <c r="W20" s="4"/>
-    </row>
-    <row r="21" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
+    <row r="20" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="O20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="AC20"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21"/>
       <c r="C21" s="7"/>
+      <c r="D21"/>
+      <c r="E21"/>
       <c r="F21" s="59"/>
-      <c r="K21" s="4"/>
-      <c r="W21" s="4"/>
-    </row>
-    <row r="22" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K22" s="4"/>
-      <c r="W22" s="4"/>
-    </row>
-    <row r="23" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="O21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="AC21"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="O22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="AC22"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23"/>
       <c r="C23" s="7"/>
+      <c r="D23"/>
+      <c r="E23"/>
       <c r="F23" s="59"/>
-      <c r="K23" s="4"/>
-      <c r="W23" s="4"/>
-    </row>
-    <row r="24" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="4"/>
-      <c r="W24" s="4"/>
-    </row>
-    <row r="25" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="O23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="AC23"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="O24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="AC24"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25"/>
       <c r="C25" s="7"/>
+      <c r="D25"/>
+      <c r="E25"/>
       <c r="F25" s="59"/>
-      <c r="K25" s="4"/>
-      <c r="W25" s="4"/>
-    </row>
-    <row r="26" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="4"/>
-      <c r="W26" s="4"/>
-    </row>
-    <row r="27" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="O25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="AC25"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="O26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="AC26"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27"/>
       <c r="C27" s="7"/>
+      <c r="D27"/>
+      <c r="E27"/>
       <c r="F27" s="59"/>
-      <c r="K27" s="4"/>
-      <c r="W27" s="4"/>
-    </row>
-    <row r="28" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="W28" s="4"/>
-    </row>
-    <row r="29" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="O27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="AC27"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="O28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="AC28"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29"/>
       <c r="C29" s="7"/>
+      <c r="D29"/>
+      <c r="E29"/>
       <c r="F29" s="59"/>
-      <c r="K29" s="4"/>
-      <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="W30" s="4"/>
-    </row>
-    <row r="31" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="O29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="AC29"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="O30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="AC30"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31"/>
       <c r="C31" s="7"/>
+      <c r="D31"/>
+      <c r="E31"/>
       <c r="F31" s="59"/>
-      <c r="K31" s="4"/>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="W32" s="4"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="O31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="AC31"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="O32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="AC32"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33"/>
@@ -9159,13 +9335,13 @@
         <v>305</v>
       </c>
       <c r="H1" s="102" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>96</v>
       </c>
       <c r="J1" s="104" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K1" s="104" t="s">
         <v>295</v>
@@ -9278,16 +9454,16 @@
         <v>306</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I8" s="49" t="s">
         <v>32</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K8" s="49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L8" s="44" t="s">
         <v>19</v>
@@ -10218,7 +10394,7 @@
         <v>373</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>168</v>
@@ -10227,16 +10403,16 @@
         <v>169</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>326</v>
@@ -10245,7 +10421,7 @@
         <v>207</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -10263,7 +10439,7 @@
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C3" s="21"/>
       <c r="H3" s="34"/>
@@ -10274,7 +10450,7 @@
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
@@ -10337,36 +10513,36 @@
     </row>
     <row r="9" spans="1:14" s="45" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="42"/>
       <c r="F9" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="G9" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>502</v>
-      </c>
       <c r="H9" s="44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="42"/>
@@ -10405,31 +10581,31 @@
         <v>67</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>515</v>
-      </c>
       <c r="F1" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>518</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="H1" s="38" t="s">
-        <v>520</v>
-      </c>
       <c r="I1" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>523</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L1" s="5"/>
     </row>
@@ -10448,7 +10624,7 @@
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B3" s="142"/>
       <c r="D3" s="21"/>
@@ -10459,7 +10635,7 @@
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" s="143"/>
       <c r="I4" s="23"/>
@@ -10522,32 +10698,32 @@
     </row>
     <row r="9" spans="1:14" s="45" customFormat="1" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C9" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>516</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>517</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L9" s="44"/>
       <c r="M9" s="41"/>
@@ -10613,106 +10789,106 @@
         <v>67</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G1" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="I1" s="38" t="s">
-        <v>529</v>
-      </c>
-      <c r="J1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="U1" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="M1" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="R1" s="38" t="s">
+      <c r="V1" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="W1" s="38" t="s">
         <v>543</v>
       </c>
-      <c r="S1" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="T1" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="U1" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="V1" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="W1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="Y1" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Z1" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="AA1" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>548</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>550</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="AG1" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="AG1" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH1" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>557</v>
-      </c>
       <c r="AJ1" s="38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>287</v>
@@ -10741,7 +10917,7 @@
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="21"/>
@@ -10750,7 +10926,7 @@
     </row>
     <row r="4" spans="1:37" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B4" s="143"/>
     </row>
@@ -10853,105 +11029,105 @@
     </row>
     <row r="9" spans="1:37" s="45" customFormat="1" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G9" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="K9" s="44" t="s">
         <v>566</v>
       </c>
-      <c r="H9" s="44" t="s">
-        <v>568</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>568</v>
-      </c>
-      <c r="K9" s="44" t="s">
+      <c r="L9" s="44" t="s">
         <v>567</v>
       </c>
-      <c r="L9" s="44" t="s">
-        <v>568</v>
-      </c>
       <c r="M9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="R9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S9" s="42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="W9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="X9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Y9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AB9" s="44"/>
       <c r="AC9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AD9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AE9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG9" s="44" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AH9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AI9" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AJ9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -10991,64 +11167,64 @@
         <v>67</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K1" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="M1" s="38" t="s">
         <v>539</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>540</v>
-      </c>
       <c r="N1" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q1" s="38" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="R1" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="S1" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="T1" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="U1" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="V1" s="5" t="s">
         <v>556</v>
-      </c>
-      <c r="U1" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>557</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>287</v>
@@ -11078,7 +11254,7 @@
     </row>
     <row r="3" spans="1:23" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="21"/>
@@ -11087,7 +11263,7 @@
     </row>
     <row r="4" spans="1:23" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B4" s="143"/>
     </row>
@@ -11163,63 +11339,63 @@
     </row>
     <row r="9" spans="1:23" s="45" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H9" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>625</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="M9" s="42" t="s">
         <v>569</v>
       </c>
-      <c r="I9" s="44" t="s">
-        <v>626</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>568</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>568</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>572</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>570</v>
-      </c>
       <c r="N9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="T9" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U9" s="44" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="V9" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -11256,7 +11432,7 @@
         <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>287</v>
@@ -11306,7 +11482,7 @@
     </row>
     <row r="3" spans="1:23" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="21"/>
@@ -11316,13 +11492,13 @@
     </row>
     <row r="4" spans="1:23" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B4" s="143"/>
     </row>
     <row r="5" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="143" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B5" s="143"/>
     </row>
@@ -11393,10 +11569,10 @@
     </row>
     <row r="10" spans="1:23" s="45" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -11447,22 +11623,22 @@
         <v>67</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D1" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>585</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="38" t="s">
+        <v>684</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>587</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>685</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>588</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>287</v>
@@ -11480,7 +11656,7 @@
     </row>
     <row r="3" spans="1:9" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="142" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B3" s="142"/>
       <c r="D3" s="21"/>
@@ -11488,13 +11664,13 @@
     </row>
     <row r="4" spans="1:9" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B4" s="143"/>
     </row>
     <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B5" s="143"/>
     </row>
@@ -11524,19 +11700,19 @@
     </row>
     <row r="9" spans="1:9" s="45" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>137</v>
@@ -11584,16 +11760,16 @@
         <v>102</v>
       </c>
       <c r="D1" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="106" t="s">
         <v>420</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="F1" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="106" t="s">
         <v>422</v>
-      </c>
-      <c r="G1" s="106" t="s">
-        <v>423</v>
       </c>
       <c r="H1" s="108" t="s">
         <v>309</v>
@@ -11656,22 +11832,22 @@
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="41" t="s">
+        <v>679</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>680</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="F7" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="G7" s="41" t="s">
         <v>682</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>683</v>
       </c>
       <c r="H7" s="50" t="s">
         <v>122</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J7" s="41" t="s">
         <v>311</v>
@@ -11820,7 +11996,7 @@
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>126</v>
@@ -11885,19 +12061,19 @@
     </row>
     <row r="7" spans="1:16" s="43" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>391</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>392</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F7" s="49" t="s">
         <v>104</v>
@@ -12036,54 +12212,54 @@
         <v>373</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>597</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>593</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>604</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="K1" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>602</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -12155,7 +12331,7 @@
     </row>
     <row r="9" spans="1:15" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -12164,7 +12340,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="41"/>
@@ -12172,7 +12348,7 @@
       <c r="L9" s="44"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O9" s="42"/>
     </row>
@@ -12272,34 +12448,34 @@
         <v>64</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="124" t="s">
+        <v>433</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="125" t="s">
         <v>436</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="H1" s="125" t="s">
         <v>437</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="I1" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>439</v>
       </c>
       <c r="J1" s="125" t="s">
         <v>326</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>145</v>
@@ -12331,7 +12507,7 @@
     </row>
     <row r="2" spans="1:34" s="129" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="127"/>
@@ -12340,7 +12516,7 @@
     </row>
     <row r="3" spans="1:34" s="130" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D3" s="131"/>
       <c r="AH3" s="131"/>
@@ -12403,37 +12579,37 @@
     </row>
     <row r="7" spans="1:34" s="139" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" s="135" t="s">
         <v>443</v>
-      </c>
-      <c r="B7" s="135" t="s">
-        <v>444</v>
       </c>
       <c r="C7" s="135"/>
       <c r="D7" s="135" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="136" t="s">
         <v>445</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="F7" s="136" t="s">
         <v>446</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="G7" s="136" t="s">
         <v>447</v>
-      </c>
-      <c r="G7" s="136" t="s">
-        <v>448</v>
       </c>
       <c r="H7" s="137"/>
       <c r="I7" s="136" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J7" s="138"/>
       <c r="K7" s="136" t="s">
+        <v>449</v>
+      </c>
+      <c r="L7" s="136" t="s">
         <v>450</v>
       </c>
-      <c r="L7" s="136" t="s">
+      <c r="M7" s="136" t="s">
         <v>451</v>
-      </c>
-      <c r="M7" s="136" t="s">
-        <v>452</v>
       </c>
       <c r="N7" s="138"/>
       <c r="O7" s="138"/>
@@ -13263,16 +13439,16 @@
         <v>64</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1" s="124" t="s">
         <v>707</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="E1" s="5" t="s">
         <v>708</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>709</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="125"/>
@@ -13306,7 +13482,7 @@
     </row>
     <row r="2" spans="1:34" s="129" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="127" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="127"/>
@@ -13315,7 +13491,7 @@
     </row>
     <row r="3" spans="1:34" s="130" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D3" s="131"/>
       <c r="AH3" s="131"/>
@@ -13378,15 +13554,15 @@
     </row>
     <row r="7" spans="1:34" s="139" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B7" s="135"/>
       <c r="C7" s="135"/>
       <c r="D7" s="135" t="s">
+        <v>709</v>
+      </c>
+      <c r="E7" s="135" t="s">
         <v>710</v>
-      </c>
-      <c r="E7" s="135" t="s">
-        <v>711</v>
       </c>
       <c r="F7" s="136"/>
       <c r="G7" s="136"/>
@@ -14185,9 +14361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14266,16 +14442,16 @@
         <v>384</v>
       </c>
       <c r="P1" s="108" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Q1" s="108" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R1" s="108" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S1" s="108" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="T1" s="108" t="s">
         <v>318</v>
@@ -14311,10 +14487,10 @@
         <v>138</v>
       </c>
       <c r="AE1" s="108" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF1" s="108" t="s">
         <v>694</v>
-      </c>
-      <c r="AF1" s="108" t="s">
-        <v>695</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>129</v>
@@ -14416,7 +14592,7 @@
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
       <c r="D7" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>58</v>
@@ -14428,7 +14604,7 @@
         <v>197</v>
       </c>
       <c r="H7" s="137" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I7" s="49" t="s">
         <v>50</v>
@@ -14440,34 +14616,34 @@
         <v>198</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N7" s="50" t="s">
         <v>332</v>
       </c>
       <c r="O7" s="50" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P7" s="50" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q7" s="50" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="R7" s="50" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S7" s="50" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="T7" s="50" t="s">
         <v>143</v>
       </c>
       <c r="U7" s="137" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V7" s="50" t="s">
         <v>245</v>
@@ -14476,13 +14652,13 @@
         <v>246</v>
       </c>
       <c r="X7" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Y7" s="50" t="s">
         <v>144</v>
       </c>
       <c r="Z7" s="137" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AA7" s="50" t="s">
         <v>247</v>
@@ -14491,16 +14667,16 @@
         <v>137</v>
       </c>
       <c r="AC7" s="137" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AD7" s="49" t="s">
         <v>51</v>
       </c>
       <c r="AE7" s="49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF7" s="137" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AG7" s="41" t="s">
         <v>52</v>
@@ -15432,7 +15608,7 @@
         <v>204</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>205</v>
@@ -15459,10 +15635,10 @@
         <v>233</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -15564,13 +15740,13 @@
         <v>325</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L8" s="50" t="s">
         <v>212</v>
@@ -16259,7 +16435,7 @@
         <v>154</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>199</v>
@@ -16280,19 +16456,19 @@
         <v>155</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>153</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -16355,49 +16531,49 @@
         <v>213</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D7" s="41" t="s">
+        <v>638</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>639</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>640</v>
       </c>
       <c r="F7" s="50" t="s">
         <v>151</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H7" s="149" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J7" s="41" t="s">
+        <v>696</v>
+      </c>
+      <c r="K7" s="41" t="s">
         <v>697</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>698</v>
       </c>
       <c r="L7" s="50" t="s">
         <v>152</v>
       </c>
       <c r="M7" s="41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N7" s="41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P7" s="41" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -16588,25 +16764,25 @@
         <v>145</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>657</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>659</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>660</v>
-      </c>
       <c r="H1" s="35" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -16649,25 +16825,25 @@
         <v>61</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="E8" s="42" t="s">
         <v>674</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>675</v>
-      </c>
       <c r="F8" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>660</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>663</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>661</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -16760,7 +16936,7 @@
         <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>333</v>
@@ -16850,7 +17026,7 @@
         <v>381</v>
       </c>
       <c r="AF1" s="38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG1" s="38" t="s">
         <v>382</v>
@@ -16861,13 +17037,13 @@
     </row>
     <row r="2" spans="1:34" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:34" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -16900,7 +17076,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>339</v>
@@ -17104,9 +17280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -17183,13 +17359,13 @@
         <v>315</v>
       </c>
       <c r="O1" s="108" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P1" s="108" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Q1" s="108" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R1" s="108" t="s">
         <v>318</v>
@@ -17216,7 +17392,7 @@
         <v>138</v>
       </c>
       <c r="Z1" s="108" t="s">
-        <v>385</v>
+        <v>693</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>129</v>
@@ -17328,7 +17504,7 @@
       </c>
       <c r="E7" s="90"/>
       <c r="F7" s="44" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G7" s="48" t="s">
         <v>58</v>
@@ -17355,13 +17531,13 @@
         <v>316</v>
       </c>
       <c r="O7" s="49" t="s">
+        <v>668</v>
+      </c>
+      <c r="P7" s="49" t="s">
         <v>669</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="Q7" s="50" t="s">
         <v>670</v>
-      </c>
-      <c r="Q7" s="50" t="s">
-        <v>671</v>
       </c>
       <c r="R7" s="49" t="s">
         <v>143</v>
@@ -17373,7 +17549,7 @@
         <v>246</v>
       </c>
       <c r="U7" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="V7" s="42" t="s">
         <v>241</v>
@@ -17388,7 +17564,7 @@
         <v>51</v>
       </c>
       <c r="Z7" s="49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AA7" s="93" t="s">
         <v>52</v>
@@ -17864,7 +18040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5476BCB0-492A-4349-9B4C-02D8DB45D26B}">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
@@ -17920,10 +18096,10 @@
         <v>204</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>205</v>
@@ -17950,10 +18126,10 @@
         <v>233</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -18061,16 +18237,16 @@
         <v>325</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M8" s="50" t="s">
         <v>212</v>
@@ -18829,7 +19005,7 @@
         <v>154</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>199</v>
@@ -18850,24 +19026,24 @@
         <v>155</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>153</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -18925,28 +19101,28 @@
         <v>213</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D7" s="41" t="s">
+        <v>638</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>639</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>640</v>
       </c>
       <c r="F7" s="50" t="s">
         <v>151</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H7" s="149" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I7" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="J7" s="41" t="s">
         <v>641</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>642</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>156</v>
@@ -18955,19 +19131,19 @@
         <v>152</v>
       </c>
       <c r="M7" s="41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N7" s="41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P7" s="41" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -19163,19 +19339,19 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>123</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>172</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
@@ -19189,13 +19365,13 @@
     </row>
     <row r="2" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19267,19 +19443,19 @@
     </row>
     <row r="9" spans="1:15" s="45" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="42"/>
@@ -19368,25 +19544,25 @@
         <v>145</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>657</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>659</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>660</v>
-      </c>
       <c r="H1" s="35" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -19429,25 +19605,25 @@
         <v>61</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="E8" s="42" t="s">
         <v>674</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>675</v>
-      </c>
       <c r="F8" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>660</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>663</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>661</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -19540,7 +19716,7 @@
         <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>333</v>
@@ -19630,7 +19806,7 @@
         <v>381</v>
       </c>
       <c r="AF1" s="38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG1" s="38" t="s">
         <v>382</v>
@@ -19641,13 +19817,13 @@
     </row>
     <row r="2" spans="1:34" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:34" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19680,7 +19856,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>339</v>
@@ -19909,29 +20085,29 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>617</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>618</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>619</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>620</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="I1" s="38" t="s">
         <v>623</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>624</v>
       </c>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
@@ -19942,13 +20118,13 @@
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:16" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20024,31 +20200,31 @@
     </row>
     <row r="9" spans="1:16" s="45" customFormat="1" ht="208.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H9" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>631</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>632</v>
       </c>
       <c r="J9" s="42"/>
       <c r="K9" s="41"/>
@@ -20108,7 +20284,7 @@
     <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -20986,7 +21162,7 @@
         <v>184</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>185</v>
@@ -21030,12 +21206,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B306D734CEBD84FBBC41786449802E3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="16005ef843dd214786fd86ac676497e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54a4fa2c-6341-4596-b8d8-a2e023346efc" xmlns:ns4="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2325c866b17d621340695414d4ca9b0e" ns3:_="" ns4:_="">
     <xsd:import namespace="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
@@ -21252,6 +21422,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -21262,23 +21438,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7124AFE1-C9C5-46E7-A048-9DDD62293557}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21297,6 +21456,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
   <ds:schemaRefs>
